--- a/Resultados/Escenario 1/objective_value.xlsx
+++ b/Resultados/Escenario 1/objective_value.xlsx
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>251</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>849720.8543411817</v>
+        <v>432021.3375549095</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>252</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>943430.4754064829</v>
+        <v>615619.421689006</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>815716.1728637167</v>
+        <v>587691.511496152</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>254</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>786654.9762502849</v>
+        <v>565889.7103296856</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>255</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>788278.7531910018</v>
+        <v>559288.3858809078</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>256</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>900524.0424168136</v>
+        <v>670810.8926154787</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>257</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>783593.7173229592</v>
+        <v>385899.3054907094</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>258</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>947289.6844084318</v>
+        <v>546249.0852977535</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>259</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>764347.7395156501</v>
+        <v>642967.421842097</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>260</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>820047.4382098613</v>
+        <v>527907.8346815057</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1044250.03464437</v>
+        <v>419302.5678228302</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>935744.7244747946</v>
+        <v>528969.065383519</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>263</v>
+        <v>13</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>792697.4555585305</v>
+        <v>724238.8779334164</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>264</v>
+        <v>14</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>825446.4297799491</v>
+        <v>552389.584934285</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>265</v>
+        <v>15</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>977943.1101965278</v>
+        <v>532222.0856517134</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>266</v>
+        <v>16</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1179514.595823718</v>
+        <v>737369.0663267184</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>267</v>
+        <v>17</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>793674.0298940343</v>
+        <v>611300.7188935357</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>268</v>
+        <v>18</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>911136.7869997075</v>
+        <v>586133.0965512667</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>269</v>
+        <v>19</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>809745.3787729283</v>
+        <v>550323.7891865923</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1083271.857129261</v>
+        <v>641257.4483198745</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>271</v>
+        <v>21</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>819767.7566504045</v>
+        <v>591992.1556295323</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>749778.5077944712</v>
+        <v>560267.354295161</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>273</v>
+        <v>23</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1122138.955113208</v>
+        <v>582971.5349228517</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>274</v>
+        <v>24</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>743395.743930746</v>
+        <v>617445.9064442189</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>275</v>
+        <v>25</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>998280.7593314459</v>
+        <v>431527.4474060338</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>276</v>
+        <v>26</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>733213.7666961292</v>
+        <v>633266.5618653315</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>277</v>
+        <v>27</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>952107.5485277695</v>
+        <v>467477.5775367022</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>869897.8754979117</v>
+        <v>667545.751088711</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>279</v>
+        <v>29</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>743996.190459286</v>
+        <v>555199.8396161906</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>280</v>
+        <v>30</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>819492.0470096257</v>
+        <v>609221.7761932195</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>281</v>
+        <v>31</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>940422.5841362816</v>
+        <v>782746.2805649592</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>282</v>
+        <v>32</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>903729.2868974403</v>
+        <v>501716.6419089928</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>283</v>
+        <v>33</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>871072.3900205216</v>
+        <v>503085.1901340144</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>284</v>
+        <v>34</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>923979.8174287525</v>
+        <v>781761.2274894849</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>285</v>
+        <v>35</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>870882.7121273674</v>
+        <v>674472.0868490592</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>286</v>
+        <v>36</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>860266.6347657569</v>
+        <v>666221.8535271721</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>287</v>
+        <v>37</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>1043920.444904933</v>
+        <v>589053.6081748941</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>288</v>
+        <v>38</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>904201.0207944661</v>
+        <v>674352.7008135134</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>289</v>
+        <v>39</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>619647.035096159</v>
+        <v>631890.6497627938</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>290</v>
+        <v>40</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>811723.5370426596</v>
+        <v>679959.6861922301</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>291</v>
+        <v>41</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>952214.09907357</v>
+        <v>547327.8613545935</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>292</v>
+        <v>42</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>724738.2208941932</v>
+        <v>628510.973284553</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>293</v>
+        <v>43</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>964027.5158532244</v>
+        <v>561374.0151090755</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>294</v>
+        <v>44</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>953387.3811629462</v>
+        <v>602072.2190616352</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>295</v>
+        <v>45</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>743551.7482223049</v>
+        <v>754616.9168703385</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>296</v>
+        <v>46</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>727768.8619026506</v>
+        <v>741072.1912314869</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>297</v>
+        <v>47</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>1004799.255516704</v>
+        <v>563055.7947564148</v>
       </c>
     </row>
     <row r="49">
@@ -1113,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>298</v>
+        <v>48</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>1068807.366282058</v>
+        <v>680326.2501847022</v>
       </c>
     </row>
     <row r="50">
@@ -1127,13 +1127,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>299</v>
+        <v>49</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>946805.3645703555</v>
+        <v>539091.937964803</v>
       </c>
     </row>
     <row r="51">
@@ -1141,13 +1141,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>928050.7221785641</v>
+        <v>735037.6487348737</v>
       </c>
     </row>
     <row r="52">
@@ -1155,13 +1155,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>739387.7034162913</v>
+        <v>563785.1942263402</v>
       </c>
     </row>
     <row r="53">
@@ -1169,13 +1169,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>302</v>
+        <v>52</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>1046755.484136368</v>
+        <v>590946.7457855272</v>
       </c>
     </row>
     <row r="54">
@@ -1183,13 +1183,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>303</v>
+        <v>53</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>1052846.797109715</v>
+        <v>722512.5181200178</v>
       </c>
     </row>
     <row r="55">
@@ -1197,13 +1197,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>304</v>
+        <v>54</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>790745.4380109246</v>
+        <v>606559.6266360562</v>
       </c>
     </row>
     <row r="56">
@@ -1211,13 +1211,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>305</v>
+        <v>55</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>1037935.822790483</v>
+        <v>635466.4839908112</v>
       </c>
     </row>
     <row r="57">
@@ -1225,13 +1225,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>306</v>
+        <v>56</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>797970.9930350545</v>
+        <v>656453.8602691822</v>
       </c>
     </row>
     <row r="58">
@@ -1239,13 +1239,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>307</v>
+        <v>57</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>849007.9480197434</v>
+        <v>530908.4189273689</v>
       </c>
     </row>
     <row r="59">
@@ -1253,13 +1253,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>308</v>
+        <v>58</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>937237.0367673896</v>
+        <v>651406.5436759107</v>
       </c>
     </row>
     <row r="60">
@@ -1267,13 +1267,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>309</v>
+        <v>59</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>1061878.148215393</v>
+        <v>639561.6438898047</v>
       </c>
     </row>
     <row r="61">
@@ -1281,13 +1281,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>310</v>
+        <v>60</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>938801.3818082127</v>
+        <v>646269.9185626523</v>
       </c>
     </row>
     <row r="62">
@@ -1295,13 +1295,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>311</v>
+        <v>61</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>694027.8450202857</v>
+        <v>638454.263498439</v>
       </c>
     </row>
     <row r="63">
@@ -1309,13 +1309,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>312</v>
+        <v>62</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>976196.7454992161</v>
+        <v>477316.4185919186</v>
       </c>
     </row>
     <row r="64">
@@ -1323,13 +1323,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>313</v>
+        <v>63</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>1122556.196634528</v>
+        <v>685827.2030826936</v>
       </c>
     </row>
     <row r="65">
@@ -1337,13 +1337,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>314</v>
+        <v>64</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>730337.8820146102</v>
+        <v>599108.7237371336</v>
       </c>
     </row>
     <row r="66">
@@ -1351,13 +1351,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>315</v>
+        <v>65</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>982362.7050336435</v>
+        <v>724540.8768847561</v>
       </c>
     </row>
     <row r="67">
@@ -1365,13 +1365,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>316</v>
+        <v>66</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>1040925.351116925</v>
+        <v>545536.5537181444</v>
       </c>
     </row>
     <row r="68">
@@ -1379,13 +1379,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>317</v>
+        <v>67</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>811086.1727543223</v>
+        <v>573173.4394078397</v>
       </c>
     </row>
     <row r="69">
@@ -1393,13 +1393,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>318</v>
+        <v>68</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>901302.013916495</v>
+        <v>711276.1727980732</v>
       </c>
     </row>
     <row r="70">
@@ -1407,13 +1407,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>319</v>
+        <v>69</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>949776.7343618069</v>
+        <v>528255.2379720025</v>
       </c>
     </row>
     <row r="71">
@@ -1421,13 +1421,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>320</v>
+        <v>70</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>803833.4328766273</v>
+        <v>697588.7252417621</v>
       </c>
     </row>
     <row r="72">
@@ -1435,13 +1435,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>321</v>
+        <v>71</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>866938.0296098298</v>
+        <v>440326.7871676829</v>
       </c>
     </row>
     <row r="73">
@@ -1449,13 +1449,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>322</v>
+        <v>72</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>873784.9591524935</v>
+        <v>564675.0624915843</v>
       </c>
     </row>
     <row r="74">
@@ -1463,13 +1463,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>323</v>
+        <v>73</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>849749.7762225193</v>
+        <v>554365.9713132541</v>
       </c>
     </row>
     <row r="75">
@@ -1477,13 +1477,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>324</v>
+        <v>74</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>754348.8743107892</v>
+        <v>651587.6133831663</v>
       </c>
     </row>
     <row r="76">
@@ -1491,13 +1491,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>325</v>
+        <v>75</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>779477.3395043082</v>
+        <v>666741.9677657611</v>
       </c>
     </row>
     <row r="77">
@@ -1505,13 +1505,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>326</v>
+        <v>76</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>674127.8957622922</v>
+        <v>570898.4421415138</v>
       </c>
     </row>
     <row r="78">
@@ -1519,13 +1519,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="C78" t="n">
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>1093862.276044114</v>
+        <v>710526.1240786269</v>
       </c>
     </row>
     <row r="79">
@@ -1533,13 +1533,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>328</v>
+        <v>78</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>696703.9796156513</v>
+        <v>630038.0540342301</v>
       </c>
     </row>
     <row r="80">
@@ -1547,13 +1547,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>329</v>
+        <v>79</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>1224683.524623582</v>
+        <v>499231.4229088838</v>
       </c>
     </row>
     <row r="81">
@@ -1561,13 +1561,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="C81" t="n">
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>819605.6767089363</v>
+        <v>716469.9388065909</v>
       </c>
     </row>
     <row r="82">
@@ -1575,13 +1575,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>331</v>
+        <v>81</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>925014.5536736518</v>
+        <v>624917.2476194489</v>
       </c>
     </row>
     <row r="83">
@@ -1589,13 +1589,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>332</v>
+        <v>82</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>883772.2739071872</v>
+        <v>498819.3112382463</v>
       </c>
     </row>
     <row r="84">
@@ -1603,13 +1603,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>333</v>
+        <v>83</v>
       </c>
       <c r="C84" t="n">
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>906890.8725334251</v>
+        <v>607843.6126611698</v>
       </c>
     </row>
     <row r="85">
@@ -1617,13 +1617,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>334</v>
+        <v>84</v>
       </c>
       <c r="C85" t="n">
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>1022395.481492404</v>
+        <v>670151.1614727441</v>
       </c>
     </row>
     <row r="86">
@@ -1631,13 +1631,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>335</v>
+        <v>85</v>
       </c>
       <c r="C86" t="n">
         <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>878700.9244031508</v>
+        <v>525583.3473296517</v>
       </c>
     </row>
     <row r="87">
@@ -1645,13 +1645,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>336</v>
+        <v>86</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>1077594.109908979</v>
+        <v>574923.2193020938</v>
       </c>
     </row>
     <row r="88">
@@ -1659,13 +1659,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>337</v>
+        <v>87</v>
       </c>
       <c r="C88" t="n">
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>795812.0111217574</v>
+        <v>664174.8272390316</v>
       </c>
     </row>
     <row r="89">
@@ -1673,13 +1673,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>338</v>
+        <v>88</v>
       </c>
       <c r="C89" t="n">
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>852136.5323127231</v>
+        <v>548340.55897238</v>
       </c>
     </row>
     <row r="90">
@@ -1687,13 +1687,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>339</v>
+        <v>89</v>
       </c>
       <c r="C90" t="n">
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>971549.012662418</v>
+        <v>548319.4482993953</v>
       </c>
     </row>
     <row r="91">
@@ -1701,13 +1701,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>340</v>
+        <v>90</v>
       </c>
       <c r="C91" t="n">
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>827316.0127008487</v>
+        <v>597026.7228687447</v>
       </c>
     </row>
     <row r="92">
@@ -1715,13 +1715,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>341</v>
+        <v>91</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>764905.6198763868</v>
+        <v>623259.1874293801</v>
       </c>
     </row>
     <row r="93">
@@ -1729,13 +1729,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>342</v>
+        <v>92</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>997283.6806133196</v>
+        <v>719824.0622677025</v>
       </c>
     </row>
     <row r="94">
@@ -1743,13 +1743,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>343</v>
+        <v>93</v>
       </c>
       <c r="C94" t="n">
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>796180.5042214156</v>
+        <v>666503.1307393698</v>
       </c>
     </row>
     <row r="95">
@@ -1757,13 +1757,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>344</v>
+        <v>94</v>
       </c>
       <c r="C95" t="n">
         <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>859443.1345048752</v>
+        <v>561933.3532507941</v>
       </c>
     </row>
     <row r="96">
@@ -1771,13 +1771,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>345</v>
+        <v>95</v>
       </c>
       <c r="C96" t="n">
         <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>997668.2578468247</v>
+        <v>780625.4282676304</v>
       </c>
     </row>
     <row r="97">
@@ -1785,13 +1785,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>346</v>
+        <v>96</v>
       </c>
       <c r="C97" t="n">
         <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>1162418.708219172</v>
+        <v>629884.1035091266</v>
       </c>
     </row>
     <row r="98">
@@ -1799,13 +1799,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>347</v>
+        <v>97</v>
       </c>
       <c r="C98" t="n">
         <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>686564.55907647</v>
+        <v>703656.4937877984</v>
       </c>
     </row>
     <row r="99">
@@ -1813,13 +1813,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>348</v>
+        <v>98</v>
       </c>
       <c r="C99" t="n">
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>986615.6123238268</v>
+        <v>551575.6142474343</v>
       </c>
     </row>
     <row r="100">
@@ -1827,13 +1827,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>349</v>
+        <v>99</v>
       </c>
       <c r="C100" t="n">
         <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>720764.9813762112</v>
+        <v>592695.3279169792</v>
       </c>
     </row>
     <row r="101">
@@ -1841,13 +1841,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="C101" t="n">
         <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>1118707.546405175</v>
+        <v>467597.0340071025</v>
       </c>
     </row>
     <row r="102">
@@ -1855,13 +1855,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="C102" t="n">
         <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>880256.2727267349</v>
+        <v>666883.6398858766</v>
       </c>
     </row>
     <row r="103">
@@ -1869,13 +1869,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>352</v>
+        <v>102</v>
       </c>
       <c r="C103" t="n">
         <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>537576.3337798105</v>
+        <v>783888.4406966794</v>
       </c>
     </row>
     <row r="104">
@@ -1883,13 +1883,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>353</v>
+        <v>103</v>
       </c>
       <c r="C104" t="n">
         <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>933706.4849128684</v>
+        <v>695732.9376115019</v>
       </c>
     </row>
     <row r="105">
@@ -1897,13 +1897,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>354</v>
+        <v>104</v>
       </c>
       <c r="C105" t="n">
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>1072962.990974963</v>
+        <v>759672.1916102038</v>
       </c>
     </row>
     <row r="106">
@@ -1911,13 +1911,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>355</v>
+        <v>105</v>
       </c>
       <c r="C106" t="n">
         <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>788703.033271072</v>
+        <v>533774.2273458079</v>
       </c>
     </row>
     <row r="107">
@@ -1925,13 +1925,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>356</v>
+        <v>106</v>
       </c>
       <c r="C107" t="n">
         <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>771560.3617074899</v>
+        <v>597666.9664748503</v>
       </c>
     </row>
     <row r="108">
@@ -1939,13 +1939,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>357</v>
+        <v>107</v>
       </c>
       <c r="C108" t="n">
         <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>1161940.122499217</v>
+        <v>691187.6858679354</v>
       </c>
     </row>
     <row r="109">
@@ -1953,13 +1953,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>358</v>
+        <v>108</v>
       </c>
       <c r="C109" t="n">
         <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>1009933.880589252</v>
+        <v>590121.7292083189</v>
       </c>
     </row>
     <row r="110">
@@ -1967,13 +1967,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>359</v>
+        <v>109</v>
       </c>
       <c r="C110" t="n">
         <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>814640.2721625998</v>
+        <v>629943.8670517016</v>
       </c>
     </row>
     <row r="111">
@@ -1981,13 +1981,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>360</v>
+        <v>110</v>
       </c>
       <c r="C111" t="n">
         <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>873183.1510833449</v>
+        <v>580825.4982302418</v>
       </c>
     </row>
     <row r="112">
@@ -1995,13 +1995,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>361</v>
+        <v>111</v>
       </c>
       <c r="C112" t="n">
         <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>986939.5036462058</v>
+        <v>622806.4652426401</v>
       </c>
     </row>
     <row r="113">
@@ -2009,13 +2009,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>362</v>
+        <v>112</v>
       </c>
       <c r="C113" t="n">
         <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>658179.9944956739</v>
+        <v>405915.6747674812</v>
       </c>
     </row>
     <row r="114">
@@ -2023,13 +2023,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>363</v>
+        <v>113</v>
       </c>
       <c r="C114" t="n">
         <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>716788.3618355519</v>
+        <v>722266.0609631897</v>
       </c>
     </row>
     <row r="115">
@@ -2037,13 +2037,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>364</v>
+        <v>114</v>
       </c>
       <c r="C115" t="n">
         <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>776219.6319207251</v>
+        <v>571048.9012770373</v>
       </c>
     </row>
     <row r="116">
@@ -2051,13 +2051,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>365</v>
+        <v>115</v>
       </c>
       <c r="C116" t="n">
         <v>1</v>
       </c>
       <c r="D116" t="n">
-        <v>1059115.54872799</v>
+        <v>538089.8782882945</v>
       </c>
     </row>
     <row r="117">
@@ -2065,13 +2065,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>366</v>
+        <v>116</v>
       </c>
       <c r="C117" t="n">
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>875688.1522970039</v>
+        <v>548829.6397765386</v>
       </c>
     </row>
     <row r="118">
@@ -2079,13 +2079,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>367</v>
+        <v>117</v>
       </c>
       <c r="C118" t="n">
         <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>885789.1431585613</v>
+        <v>470645.7416408609</v>
       </c>
     </row>
     <row r="119">
@@ -2093,13 +2093,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>368</v>
+        <v>118</v>
       </c>
       <c r="C119" t="n">
         <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>764918.62831528</v>
+        <v>735795.3948525197</v>
       </c>
     </row>
     <row r="120">
@@ -2107,13 +2107,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>369</v>
+        <v>119</v>
       </c>
       <c r="C120" t="n">
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>784644.1355024097</v>
+        <v>499405.8136569147</v>
       </c>
     </row>
     <row r="121">
@@ -2121,13 +2121,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>370</v>
+        <v>120</v>
       </c>
       <c r="C121" t="n">
         <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>968015.4050946924</v>
+        <v>556684.6888748209</v>
       </c>
     </row>
     <row r="122">
@@ -2135,13 +2135,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>371</v>
+        <v>121</v>
       </c>
       <c r="C122" t="n">
         <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>1188260.953235905</v>
+        <v>693735.5693848105</v>
       </c>
     </row>
     <row r="123">
@@ -2149,13 +2149,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>372</v>
+        <v>122</v>
       </c>
       <c r="C123" t="n">
         <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>625733.471283603</v>
+        <v>766528.0554438046</v>
       </c>
     </row>
     <row r="124">
@@ -2163,13 +2163,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>373</v>
+        <v>123</v>
       </c>
       <c r="C124" t="n">
         <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>874368.2630001822</v>
+        <v>485901.6473985732</v>
       </c>
     </row>
     <row r="125">
@@ -2177,13 +2177,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>374</v>
+        <v>124</v>
       </c>
       <c r="C125" t="n">
         <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>812226.1205792734</v>
+        <v>605242.2376407009</v>
       </c>
     </row>
     <row r="126">
@@ -2191,13 +2191,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>375</v>
+        <v>125</v>
       </c>
       <c r="C126" t="n">
         <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>884107.2724695299</v>
+        <v>733733.786121555</v>
       </c>
     </row>
     <row r="127">
@@ -2205,13 +2205,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>376</v>
+        <v>126</v>
       </c>
       <c r="C127" t="n">
         <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>781747.3957067159</v>
+        <v>471036.7808743575</v>
       </c>
     </row>
     <row r="128">
@@ -2219,13 +2219,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>377</v>
+        <v>127</v>
       </c>
       <c r="C128" t="n">
         <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>748963.8549951349</v>
+        <v>699766.0459228478</v>
       </c>
     </row>
     <row r="129">
@@ -2233,13 +2233,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>378</v>
+        <v>128</v>
       </c>
       <c r="C129" t="n">
         <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>815993.4388509579</v>
+        <v>619173.6497499829</v>
       </c>
     </row>
     <row r="130">
@@ -2247,13 +2247,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>379</v>
+        <v>129</v>
       </c>
       <c r="C130" t="n">
         <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>921010.9726497014</v>
+        <v>420873.5665397616</v>
       </c>
     </row>
     <row r="131">
@@ -2261,13 +2261,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>380</v>
+        <v>130</v>
       </c>
       <c r="C131" t="n">
         <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>928594.8229423069</v>
+        <v>753221.83911184</v>
       </c>
     </row>
     <row r="132">
@@ -2275,13 +2275,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>381</v>
+        <v>131</v>
       </c>
       <c r="C132" t="n">
         <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>837684.581241208</v>
+        <v>682530.917870944</v>
       </c>
     </row>
     <row r="133">
@@ -2289,13 +2289,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>382</v>
+        <v>132</v>
       </c>
       <c r="C133" t="n">
         <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>873425.9139854326</v>
+        <v>390846.6786745284</v>
       </c>
     </row>
     <row r="134">
@@ -2303,13 +2303,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>383</v>
+        <v>133</v>
       </c>
       <c r="C134" t="n">
         <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>845712.0394178334</v>
+        <v>704631.0609265657</v>
       </c>
     </row>
     <row r="135">
@@ -2317,13 +2317,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>384</v>
+        <v>134</v>
       </c>
       <c r="C135" t="n">
         <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>838928.6243950489</v>
+        <v>743907.6314359566</v>
       </c>
     </row>
     <row r="136">
@@ -2331,13 +2331,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>385</v>
+        <v>135</v>
       </c>
       <c r="C136" t="n">
         <v>1</v>
       </c>
       <c r="D136" t="n">
-        <v>1149052.782920168</v>
+        <v>668090.4618672333</v>
       </c>
     </row>
     <row r="137">
@@ -2345,13 +2345,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>386</v>
+        <v>136</v>
       </c>
       <c r="C137" t="n">
         <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>911678.3750609478</v>
+        <v>406792.6329547961</v>
       </c>
     </row>
     <row r="138">
@@ -2359,13 +2359,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>387</v>
+        <v>137</v>
       </c>
       <c r="C138" t="n">
         <v>1</v>
       </c>
       <c r="D138" t="n">
-        <v>832926.6600057551</v>
+        <v>711126.9423905758</v>
       </c>
     </row>
     <row r="139">
@@ -2373,13 +2373,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>388</v>
+        <v>138</v>
       </c>
       <c r="C139" t="n">
         <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>966687.1969266408</v>
+        <v>647715.4314364672</v>
       </c>
     </row>
     <row r="140">
@@ -2387,13 +2387,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>389</v>
+        <v>139</v>
       </c>
       <c r="C140" t="n">
         <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>956522.9638571836</v>
+        <v>695557.953016217</v>
       </c>
     </row>
     <row r="141">
@@ -2401,13 +2401,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>390</v>
+        <v>140</v>
       </c>
       <c r="C141" t="n">
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>1014748.536082071</v>
+        <v>533393.0677641934</v>
       </c>
     </row>
     <row r="142">
@@ -2415,13 +2415,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>391</v>
+        <v>141</v>
       </c>
       <c r="C142" t="n">
         <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>887809.3246708096</v>
+        <v>588398.1419189316</v>
       </c>
     </row>
     <row r="143">
@@ -2429,13 +2429,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>392</v>
+        <v>142</v>
       </c>
       <c r="C143" t="n">
         <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>983815.4497520457</v>
+        <v>703088.6375826276</v>
       </c>
     </row>
     <row r="144">
@@ -2443,13 +2443,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>393</v>
+        <v>143</v>
       </c>
       <c r="C144" t="n">
         <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>735509.5132606979</v>
+        <v>578039.1409858759</v>
       </c>
     </row>
     <row r="145">
@@ -2457,13 +2457,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>394</v>
+        <v>144</v>
       </c>
       <c r="C145" t="n">
         <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>958529.4761435515</v>
+        <v>570160.4917040642</v>
       </c>
     </row>
     <row r="146">
@@ -2471,13 +2471,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>395</v>
+        <v>145</v>
       </c>
       <c r="C146" t="n">
         <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>757134.4058196601</v>
+        <v>599001.9697888609</v>
       </c>
     </row>
     <row r="147">
@@ -2485,13 +2485,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>396</v>
+        <v>146</v>
       </c>
       <c r="C147" t="n">
         <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>941169.3158662447</v>
+        <v>586673.2173729676</v>
       </c>
     </row>
     <row r="148">
@@ -2499,13 +2499,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>397</v>
+        <v>147</v>
       </c>
       <c r="C148" t="n">
         <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>953865.613154851</v>
+        <v>690155.1997066147</v>
       </c>
     </row>
     <row r="149">
@@ -2513,13 +2513,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>398</v>
+        <v>148</v>
       </c>
       <c r="C149" t="n">
         <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>856103.3089126101</v>
+        <v>614283.9704841224</v>
       </c>
     </row>
     <row r="150">
@@ -2527,13 +2527,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>399</v>
+        <v>149</v>
       </c>
       <c r="C150" t="n">
         <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>906350.1323162875</v>
+        <v>630659.377481728</v>
       </c>
     </row>
     <row r="151">
@@ -2541,13 +2541,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="C151" t="n">
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>993118.0637887232</v>
+        <v>577321.5737675573</v>
       </c>
     </row>
     <row r="152">
@@ -2555,13 +2555,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>401</v>
+        <v>151</v>
       </c>
       <c r="C152" t="n">
         <v>1</v>
       </c>
       <c r="D152" t="n">
-        <v>822590.887387638</v>
+        <v>576479.4704324122</v>
       </c>
     </row>
     <row r="153">
@@ -2569,13 +2569,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>402</v>
+        <v>152</v>
       </c>
       <c r="C153" t="n">
         <v>1</v>
       </c>
       <c r="D153" t="n">
-        <v>911553.7632328284</v>
+        <v>740317.6285024494</v>
       </c>
     </row>
     <row r="154">
@@ -2583,13 +2583,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>403</v>
+        <v>153</v>
       </c>
       <c r="C154" t="n">
         <v>1</v>
       </c>
       <c r="D154" t="n">
-        <v>725673.9747718205</v>
+        <v>492182.1803391559</v>
       </c>
     </row>
     <row r="155">
@@ -2597,13 +2597,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>404</v>
+        <v>154</v>
       </c>
       <c r="C155" t="n">
         <v>1</v>
       </c>
       <c r="D155" t="n">
-        <v>775278.450713944</v>
+        <v>635384.4054953611</v>
       </c>
     </row>
     <row r="156">
@@ -2611,13 +2611,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>405</v>
+        <v>155</v>
       </c>
       <c r="C156" t="n">
         <v>1</v>
       </c>
       <c r="D156" t="n">
-        <v>979463.0957692497</v>
+        <v>575964.5156254644</v>
       </c>
     </row>
     <row r="157">
@@ -2625,13 +2625,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>406</v>
+        <v>156</v>
       </c>
       <c r="C157" t="n">
         <v>1</v>
       </c>
       <c r="D157" t="n">
-        <v>809586.5778291973</v>
+        <v>661705.7099781178</v>
       </c>
     </row>
     <row r="158">
@@ -2639,13 +2639,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>407</v>
+        <v>157</v>
       </c>
       <c r="C158" t="n">
         <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>693295.2444134958</v>
+        <v>720892.839250064</v>
       </c>
     </row>
     <row r="159">
@@ -2653,13 +2653,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>408</v>
+        <v>158</v>
       </c>
       <c r="C159" t="n">
         <v>1</v>
       </c>
       <c r="D159" t="n">
-        <v>829001.3367603519</v>
+        <v>634425.6888960914</v>
       </c>
     </row>
     <row r="160">
@@ -2667,13 +2667,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>409</v>
+        <v>159</v>
       </c>
       <c r="C160" t="n">
         <v>1</v>
       </c>
       <c r="D160" t="n">
-        <v>709811.4478525952</v>
+        <v>632888.7864959462</v>
       </c>
     </row>
     <row r="161">
@@ -2681,13 +2681,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>410</v>
+        <v>160</v>
       </c>
       <c r="C161" t="n">
         <v>1</v>
       </c>
       <c r="D161" t="n">
-        <v>941438.9626728036</v>
+        <v>658749.7786536241</v>
       </c>
     </row>
     <row r="162">
@@ -2695,13 +2695,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>411</v>
+        <v>161</v>
       </c>
       <c r="C162" t="n">
         <v>1</v>
       </c>
       <c r="D162" t="n">
-        <v>1065623.969227552</v>
+        <v>724082.2882414261</v>
       </c>
     </row>
     <row r="163">
@@ -2709,13 +2709,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>412</v>
+        <v>162</v>
       </c>
       <c r="C163" t="n">
         <v>1</v>
       </c>
       <c r="D163" t="n">
-        <v>1067183.201959871</v>
+        <v>711015.2285316478</v>
       </c>
     </row>
     <row r="164">
@@ -2723,13 +2723,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>413</v>
+        <v>163</v>
       </c>
       <c r="C164" t="n">
         <v>1</v>
       </c>
       <c r="D164" t="n">
-        <v>737976.9136268359</v>
+        <v>618499.1755287716</v>
       </c>
     </row>
     <row r="165">
@@ -2737,13 +2737,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>414</v>
+        <v>164</v>
       </c>
       <c r="C165" t="n">
         <v>1</v>
       </c>
       <c r="D165" t="n">
-        <v>920153.4231866923</v>
+        <v>488867.8096776619</v>
       </c>
     </row>
     <row r="166">
@@ -2751,13 +2751,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>415</v>
+        <v>165</v>
       </c>
       <c r="C166" t="n">
         <v>1</v>
       </c>
       <c r="D166" t="n">
-        <v>901426.2163661771</v>
+        <v>686519.9300908163</v>
       </c>
     </row>
     <row r="167">
@@ -2765,13 +2765,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>416</v>
+        <v>166</v>
       </c>
       <c r="C167" t="n">
         <v>1</v>
       </c>
       <c r="D167" t="n">
-        <v>757452.1157205338</v>
+        <v>592030.746542891</v>
       </c>
     </row>
     <row r="168">
@@ -2779,13 +2779,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>417</v>
+        <v>167</v>
       </c>
       <c r="C168" t="n">
         <v>1</v>
       </c>
       <c r="D168" t="n">
-        <v>852073.1962980473</v>
+        <v>690279.0841229769</v>
       </c>
     </row>
     <row r="169">
@@ -2793,13 +2793,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>418</v>
+        <v>168</v>
       </c>
       <c r="C169" t="n">
         <v>1</v>
       </c>
       <c r="D169" t="n">
-        <v>885881.4321555037</v>
+        <v>585842.1601415995</v>
       </c>
     </row>
     <row r="170">
@@ -2807,13 +2807,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>419</v>
+        <v>169</v>
       </c>
       <c r="C170" t="n">
         <v>1</v>
       </c>
       <c r="D170" t="n">
-        <v>1001078.743621089</v>
+        <v>527862.5039214083</v>
       </c>
     </row>
     <row r="171">
@@ -2821,13 +2821,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>420</v>
+        <v>170</v>
       </c>
       <c r="C171" t="n">
         <v>1</v>
       </c>
       <c r="D171" t="n">
-        <v>835136.5758522756</v>
+        <v>581729.1249271993</v>
       </c>
     </row>
     <row r="172">
@@ -2835,13 +2835,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>421</v>
+        <v>171</v>
       </c>
       <c r="C172" t="n">
         <v>1</v>
       </c>
       <c r="D172" t="n">
-        <v>862754.1433163378</v>
+        <v>752036.9898507639</v>
       </c>
     </row>
     <row r="173">
@@ -2849,13 +2849,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>422</v>
+        <v>172</v>
       </c>
       <c r="C173" t="n">
         <v>1</v>
       </c>
       <c r="D173" t="n">
-        <v>1016570.832094892</v>
+        <v>576149.7304224863</v>
       </c>
     </row>
     <row r="174">
@@ -2863,13 +2863,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>423</v>
+        <v>173</v>
       </c>
       <c r="C174" t="n">
         <v>1</v>
       </c>
       <c r="D174" t="n">
-        <v>848812.6882764428</v>
+        <v>505173.2971113154</v>
       </c>
     </row>
     <row r="175">
@@ -2877,13 +2877,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>424</v>
+        <v>174</v>
       </c>
       <c r="C175" t="n">
         <v>1</v>
       </c>
       <c r="D175" t="n">
-        <v>820144.1382444951</v>
+        <v>562349.6755546378</v>
       </c>
     </row>
     <row r="176">
@@ -2891,13 +2891,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="C176" t="n">
         <v>1</v>
       </c>
       <c r="D176" t="n">
-        <v>939021.1727282528</v>
+        <v>584507.9614406421</v>
       </c>
     </row>
     <row r="177">
@@ -2905,13 +2905,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>426</v>
+        <v>176</v>
       </c>
       <c r="C177" t="n">
         <v>1</v>
       </c>
       <c r="D177" t="n">
-        <v>909602.6133602633</v>
+        <v>551706.0968471931</v>
       </c>
     </row>
     <row r="178">
@@ -2919,13 +2919,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>427</v>
+        <v>177</v>
       </c>
       <c r="C178" t="n">
         <v>1</v>
       </c>
       <c r="D178" t="n">
-        <v>891804.9741598442</v>
+        <v>647094.1915038615</v>
       </c>
     </row>
     <row r="179">
@@ -2933,13 +2933,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>428</v>
+        <v>178</v>
       </c>
       <c r="C179" t="n">
         <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>1119066.67995433</v>
+        <v>757134.2713757079</v>
       </c>
     </row>
     <row r="180">
@@ -2947,13 +2947,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>429</v>
+        <v>179</v>
       </c>
       <c r="C180" t="n">
         <v>1</v>
       </c>
       <c r="D180" t="n">
-        <v>819997.8259294685</v>
+        <v>622460.0883407585</v>
       </c>
     </row>
     <row r="181">
@@ -2961,13 +2961,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>430</v>
+        <v>180</v>
       </c>
       <c r="C181" t="n">
         <v>1</v>
       </c>
       <c r="D181" t="n">
-        <v>775866.0921537118</v>
+        <v>699833.4587546039</v>
       </c>
     </row>
     <row r="182">
@@ -2975,13 +2975,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>431</v>
+        <v>181</v>
       </c>
       <c r="C182" t="n">
         <v>1</v>
       </c>
       <c r="D182" t="n">
-        <v>1107566.568135023</v>
+        <v>568669.6642572152</v>
       </c>
     </row>
     <row r="183">
@@ -2989,13 +2989,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>432</v>
+        <v>182</v>
       </c>
       <c r="C183" t="n">
         <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>781600.5012718528</v>
+        <v>519019.652672031</v>
       </c>
     </row>
     <row r="184">
@@ -3003,13 +3003,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>433</v>
+        <v>183</v>
       </c>
       <c r="C184" t="n">
         <v>1</v>
       </c>
       <c r="D184" t="n">
-        <v>897290.524783619</v>
+        <v>529864.683909124</v>
       </c>
     </row>
     <row r="185">
@@ -3017,13 +3017,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>434</v>
+        <v>184</v>
       </c>
       <c r="C185" t="n">
         <v>1</v>
       </c>
       <c r="D185" t="n">
-        <v>868544.6097625615</v>
+        <v>624797.8178686735</v>
       </c>
     </row>
     <row r="186">
@@ -3031,13 +3031,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>435</v>
+        <v>185</v>
       </c>
       <c r="C186" t="n">
         <v>1</v>
       </c>
       <c r="D186" t="n">
-        <v>957981.487052004</v>
+        <v>623134.8510871195</v>
       </c>
     </row>
     <row r="187">
@@ -3045,13 +3045,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>436</v>
+        <v>186</v>
       </c>
       <c r="C187" t="n">
         <v>1</v>
       </c>
       <c r="D187" t="n">
-        <v>693398.3260095402</v>
+        <v>650319.014045696</v>
       </c>
     </row>
     <row r="188">
@@ -3059,13 +3059,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>437</v>
+        <v>187</v>
       </c>
       <c r="C188" t="n">
         <v>1</v>
       </c>
       <c r="D188" t="n">
-        <v>827648.4254619655</v>
+        <v>661770.4458247924</v>
       </c>
     </row>
     <row r="189">
@@ -3073,13 +3073,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>438</v>
+        <v>188</v>
       </c>
       <c r="C189" t="n">
         <v>1</v>
       </c>
       <c r="D189" t="n">
-        <v>875411.9481231207</v>
+        <v>519993.118278395</v>
       </c>
     </row>
     <row r="190">
@@ -3087,13 +3087,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>439</v>
+        <v>189</v>
       </c>
       <c r="C190" t="n">
         <v>1</v>
       </c>
       <c r="D190" t="n">
-        <v>1015519.717973568</v>
+        <v>490536.8003969472</v>
       </c>
     </row>
     <row r="191">
@@ -3101,13 +3101,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>440</v>
+        <v>190</v>
       </c>
       <c r="C191" t="n">
         <v>1</v>
       </c>
       <c r="D191" t="n">
-        <v>888841.0855784331</v>
+        <v>772578.8442983404</v>
       </c>
     </row>
     <row r="192">
@@ -3115,13 +3115,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>441</v>
+        <v>191</v>
       </c>
       <c r="C192" t="n">
         <v>1</v>
       </c>
       <c r="D192" t="n">
-        <v>634460.9790490346</v>
+        <v>756935.0264621733</v>
       </c>
     </row>
     <row r="193">
@@ -3129,13 +3129,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>442</v>
+        <v>192</v>
       </c>
       <c r="C193" t="n">
         <v>1</v>
       </c>
       <c r="D193" t="n">
-        <v>615866.7382279038</v>
+        <v>524696.5842809464</v>
       </c>
     </row>
     <row r="194">
@@ -3143,13 +3143,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>443</v>
+        <v>193</v>
       </c>
       <c r="C194" t="n">
         <v>1</v>
       </c>
       <c r="D194" t="n">
-        <v>911990.5197960963</v>
+        <v>635009.5152033444</v>
       </c>
     </row>
     <row r="195">
@@ -3157,13 +3157,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>444</v>
+        <v>194</v>
       </c>
       <c r="C195" t="n">
         <v>1</v>
       </c>
       <c r="D195" t="n">
-        <v>1009510.198663126</v>
+        <v>526489.310035912</v>
       </c>
     </row>
     <row r="196">
@@ -3171,13 +3171,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>445</v>
+        <v>195</v>
       </c>
       <c r="C196" t="n">
         <v>1</v>
       </c>
       <c r="D196" t="n">
-        <v>824759.8218744627</v>
+        <v>517723.4020738517</v>
       </c>
     </row>
     <row r="197">
@@ -3185,13 +3185,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>446</v>
+        <v>196</v>
       </c>
       <c r="C197" t="n">
         <v>1</v>
       </c>
       <c r="D197" t="n">
-        <v>833654.6453630626</v>
+        <v>732442.3531318302</v>
       </c>
     </row>
     <row r="198">
@@ -3199,13 +3199,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>447</v>
+        <v>197</v>
       </c>
       <c r="C198" t="n">
         <v>1</v>
       </c>
       <c r="D198" t="n">
-        <v>815444.7390090969</v>
+        <v>561870.0362951204</v>
       </c>
     </row>
     <row r="199">
@@ -3213,13 +3213,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>448</v>
+        <v>198</v>
       </c>
       <c r="C199" t="n">
         <v>1</v>
       </c>
       <c r="D199" t="n">
-        <v>968916.6902961402</v>
+        <v>574709.5534993043</v>
       </c>
     </row>
     <row r="200">
@@ -3227,13 +3227,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>449</v>
+        <v>199</v>
       </c>
       <c r="C200" t="n">
         <v>1</v>
       </c>
       <c r="D200" t="n">
-        <v>996185.5943967316</v>
+        <v>546556.4506020552</v>
       </c>
     </row>
     <row r="201">
@@ -3241,13 +3241,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="C201" t="n">
         <v>1</v>
       </c>
       <c r="D201" t="n">
-        <v>1005895.643717038</v>
+        <v>527780.122499046</v>
       </c>
     </row>
     <row r="202">
@@ -3255,13 +3255,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>451</v>
+        <v>201</v>
       </c>
       <c r="C202" t="n">
         <v>1</v>
       </c>
       <c r="D202" t="n">
-        <v>692430.5188178663</v>
+        <v>662166.1763537007</v>
       </c>
     </row>
     <row r="203">
@@ -3269,13 +3269,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>452</v>
+        <v>202</v>
       </c>
       <c r="C203" t="n">
         <v>1</v>
       </c>
       <c r="D203" t="n">
-        <v>798326.0784612705</v>
+        <v>569783.8503869465</v>
       </c>
     </row>
     <row r="204">
@@ -3283,13 +3283,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>453</v>
+        <v>203</v>
       </c>
       <c r="C204" t="n">
         <v>1</v>
       </c>
       <c r="D204" t="n">
-        <v>924087.0013674432</v>
+        <v>678539.7148937319</v>
       </c>
     </row>
     <row r="205">
@@ -3297,13 +3297,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>454</v>
+        <v>204</v>
       </c>
       <c r="C205" t="n">
         <v>1</v>
       </c>
       <c r="D205" t="n">
-        <v>776192.3183122568</v>
+        <v>693307.9250282343</v>
       </c>
     </row>
     <row r="206">
@@ -3311,13 +3311,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>455</v>
+        <v>205</v>
       </c>
       <c r="C206" t="n">
         <v>1</v>
       </c>
       <c r="D206" t="n">
-        <v>698825.9084745486</v>
+        <v>668937.2745916961</v>
       </c>
     </row>
     <row r="207">
@@ -3325,13 +3325,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>456</v>
+        <v>206</v>
       </c>
       <c r="C207" t="n">
         <v>1</v>
       </c>
       <c r="D207" t="n">
-        <v>648158.2283818185</v>
+        <v>581468.400427558</v>
       </c>
     </row>
     <row r="208">
@@ -3339,13 +3339,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>457</v>
+        <v>207</v>
       </c>
       <c r="C208" t="n">
         <v>1</v>
       </c>
       <c r="D208" t="n">
-        <v>792509.3361757935</v>
+        <v>689862.7843303846</v>
       </c>
     </row>
     <row r="209">
@@ -3353,13 +3353,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>458</v>
+        <v>208</v>
       </c>
       <c r="C209" t="n">
         <v>1</v>
       </c>
       <c r="D209" t="n">
-        <v>1018439.803440884</v>
+        <v>493949.2254868353</v>
       </c>
     </row>
     <row r="210">
@@ -3367,13 +3367,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>459</v>
+        <v>209</v>
       </c>
       <c r="C210" t="n">
         <v>1</v>
       </c>
       <c r="D210" t="n">
-        <v>935965.248386686</v>
+        <v>704640.4067423645</v>
       </c>
     </row>
     <row r="211">
@@ -3381,13 +3381,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>460</v>
+        <v>210</v>
       </c>
       <c r="C211" t="n">
         <v>1</v>
       </c>
       <c r="D211" t="n">
-        <v>802802.0713304818</v>
+        <v>579073.7475443418</v>
       </c>
     </row>
     <row r="212">
@@ -3395,13 +3395,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>461</v>
+        <v>211</v>
       </c>
       <c r="C212" t="n">
         <v>1</v>
       </c>
       <c r="D212" t="n">
-        <v>1009388.893864421</v>
+        <v>574470.95249796</v>
       </c>
     </row>
     <row r="213">
@@ -3409,13 +3409,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>462</v>
+        <v>212</v>
       </c>
       <c r="C213" t="n">
         <v>1</v>
       </c>
       <c r="D213" t="n">
-        <v>760043.4522197087</v>
+        <v>728662.0041976594</v>
       </c>
     </row>
     <row r="214">
@@ -3423,13 +3423,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>463</v>
+        <v>213</v>
       </c>
       <c r="C214" t="n">
         <v>1</v>
       </c>
       <c r="D214" t="n">
-        <v>946768.436078537</v>
+        <v>480869.7642061863</v>
       </c>
     </row>
     <row r="215">
@@ -3437,13 +3437,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>464</v>
+        <v>214</v>
       </c>
       <c r="C215" t="n">
         <v>1</v>
       </c>
       <c r="D215" t="n">
-        <v>898857.5972176114</v>
+        <v>725049.2069715776</v>
       </c>
     </row>
     <row r="216">
@@ -3451,13 +3451,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>465</v>
+        <v>215</v>
       </c>
       <c r="C216" t="n">
         <v>1</v>
       </c>
       <c r="D216" t="n">
-        <v>842699.1824588643</v>
+        <v>622898.2905407</v>
       </c>
     </row>
     <row r="217">
@@ -3465,13 +3465,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>466</v>
+        <v>216</v>
       </c>
       <c r="C217" t="n">
         <v>1</v>
       </c>
       <c r="D217" t="n">
-        <v>1035815.672251107</v>
+        <v>552386.617703174</v>
       </c>
     </row>
     <row r="218">
@@ -3479,13 +3479,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>467</v>
+        <v>217</v>
       </c>
       <c r="C218" t="n">
         <v>1</v>
       </c>
       <c r="D218" t="n">
-        <v>973983.0900085652</v>
+        <v>725695.5040215508</v>
       </c>
     </row>
     <row r="219">
@@ -3493,13 +3493,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>468</v>
+        <v>218</v>
       </c>
       <c r="C219" t="n">
         <v>1</v>
       </c>
       <c r="D219" t="n">
-        <v>1053553.028183383</v>
+        <v>728390.6814283603</v>
       </c>
     </row>
     <row r="220">
@@ -3507,13 +3507,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>469</v>
+        <v>219</v>
       </c>
       <c r="C220" t="n">
         <v>1</v>
       </c>
       <c r="D220" t="n">
-        <v>890358.4046172976</v>
+        <v>563831.8899781563</v>
       </c>
     </row>
     <row r="221">
@@ -3521,13 +3521,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>470</v>
+        <v>220</v>
       </c>
       <c r="C221" t="n">
         <v>1</v>
       </c>
       <c r="D221" t="n">
-        <v>898481.390653922</v>
+        <v>696207.3025056694</v>
       </c>
     </row>
     <row r="222">
@@ -3535,13 +3535,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>471</v>
+        <v>221</v>
       </c>
       <c r="C222" t="n">
         <v>1</v>
       </c>
       <c r="D222" t="n">
-        <v>1045527.249119152</v>
+        <v>546334.3762128589</v>
       </c>
     </row>
     <row r="223">
@@ -3549,13 +3549,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>472</v>
+        <v>222</v>
       </c>
       <c r="C223" t="n">
         <v>1</v>
       </c>
       <c r="D223" t="n">
-        <v>826422.4102625693</v>
+        <v>567381.1447427241</v>
       </c>
     </row>
     <row r="224">
@@ -3563,13 +3563,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>473</v>
+        <v>223</v>
       </c>
       <c r="C224" t="n">
         <v>1</v>
       </c>
       <c r="D224" t="n">
-        <v>1192164.754302261</v>
+        <v>795251.2353133551</v>
       </c>
     </row>
     <row r="225">
@@ -3577,13 +3577,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>474</v>
+        <v>224</v>
       </c>
       <c r="C225" t="n">
         <v>1</v>
       </c>
       <c r="D225" t="n">
-        <v>1046462.827785919</v>
+        <v>555213.9566067826</v>
       </c>
     </row>
     <row r="226">
@@ -3591,13 +3591,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>475</v>
+        <v>225</v>
       </c>
       <c r="C226" t="n">
         <v>1</v>
       </c>
       <c r="D226" t="n">
-        <v>890502.053739287</v>
+        <v>618019.4353302208</v>
       </c>
     </row>
     <row r="227">
@@ -3605,13 +3605,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>476</v>
+        <v>226</v>
       </c>
       <c r="C227" t="n">
         <v>1</v>
       </c>
       <c r="D227" t="n">
-        <v>862955.5118673198</v>
+        <v>440363.7891838645</v>
       </c>
     </row>
     <row r="228">
@@ -3619,13 +3619,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>477</v>
+        <v>227</v>
       </c>
       <c r="C228" t="n">
         <v>1</v>
       </c>
       <c r="D228" t="n">
-        <v>898628.1435783887</v>
+        <v>577983.9490897583</v>
       </c>
     </row>
     <row r="229">
@@ -3633,13 +3633,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>478</v>
+        <v>228</v>
       </c>
       <c r="C229" t="n">
         <v>1</v>
       </c>
       <c r="D229" t="n">
-        <v>748702.91036287</v>
+        <v>619393.7108786412</v>
       </c>
     </row>
     <row r="230">
@@ -3647,13 +3647,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>479</v>
+        <v>229</v>
       </c>
       <c r="C230" t="n">
         <v>1</v>
       </c>
       <c r="D230" t="n">
-        <v>1022634.670779826</v>
+        <v>556795.6580384353</v>
       </c>
     </row>
     <row r="231">
@@ -3661,13 +3661,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>480</v>
+        <v>230</v>
       </c>
       <c r="C231" t="n">
         <v>1</v>
       </c>
       <c r="D231" t="n">
-        <v>915466.2358320644</v>
+        <v>582339.3699895801</v>
       </c>
     </row>
     <row r="232">
@@ -3675,13 +3675,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>481</v>
+        <v>231</v>
       </c>
       <c r="C232" t="n">
         <v>1</v>
       </c>
       <c r="D232" t="n">
-        <v>668018.2619473211</v>
+        <v>520223.0220175865</v>
       </c>
     </row>
     <row r="233">
@@ -3689,13 +3689,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>482</v>
+        <v>232</v>
       </c>
       <c r="C233" t="n">
         <v>1</v>
       </c>
       <c r="D233" t="n">
-        <v>953075.7916795859</v>
+        <v>667967.8359062955</v>
       </c>
     </row>
     <row r="234">
@@ -3703,13 +3703,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>483</v>
+        <v>233</v>
       </c>
       <c r="C234" t="n">
         <v>1</v>
       </c>
       <c r="D234" t="n">
-        <v>933584.508352731</v>
+        <v>479224.5442980095</v>
       </c>
     </row>
     <row r="235">
@@ -3717,13 +3717,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>484</v>
+        <v>234</v>
       </c>
       <c r="C235" t="n">
         <v>1</v>
       </c>
       <c r="D235" t="n">
-        <v>802271.4743113299</v>
+        <v>521838.2961031931</v>
       </c>
     </row>
     <row r="236">
@@ -3731,13 +3731,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>485</v>
+        <v>235</v>
       </c>
       <c r="C236" t="n">
         <v>1</v>
       </c>
       <c r="D236" t="n">
-        <v>888939.1101194065</v>
+        <v>502537.2515196333</v>
       </c>
     </row>
     <row r="237">
@@ -3745,13 +3745,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>486</v>
+        <v>236</v>
       </c>
       <c r="C237" t="n">
         <v>1</v>
       </c>
       <c r="D237" t="n">
-        <v>1074569.303810666</v>
+        <v>517008.1154498983</v>
       </c>
     </row>
     <row r="238">
@@ -3759,13 +3759,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>487</v>
+        <v>237</v>
       </c>
       <c r="C238" t="n">
         <v>1</v>
       </c>
       <c r="D238" t="n">
-        <v>790325.8007493749</v>
+        <v>609673.2050319499</v>
       </c>
     </row>
     <row r="239">
@@ -3773,13 +3773,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>488</v>
+        <v>238</v>
       </c>
       <c r="C239" t="n">
         <v>1</v>
       </c>
       <c r="D239" t="n">
-        <v>1049439.964811621</v>
+        <v>622552.1998792519</v>
       </c>
     </row>
     <row r="240">
@@ -3787,13 +3787,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>489</v>
+        <v>239</v>
       </c>
       <c r="C240" t="n">
         <v>1</v>
       </c>
       <c r="D240" t="n">
-        <v>870319.761252318</v>
+        <v>721363.3388743408</v>
       </c>
     </row>
     <row r="241">
@@ -3801,13 +3801,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>490</v>
+        <v>240</v>
       </c>
       <c r="C241" t="n">
         <v>1</v>
       </c>
       <c r="D241" t="n">
-        <v>1017613.54433666</v>
+        <v>666382.1723596598</v>
       </c>
     </row>
     <row r="242">
@@ -3815,13 +3815,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>491</v>
+        <v>241</v>
       </c>
       <c r="C242" t="n">
         <v>1</v>
       </c>
       <c r="D242" t="n">
-        <v>934569.9818319897</v>
+        <v>572591.6039999132</v>
       </c>
     </row>
     <row r="243">
@@ -3829,13 +3829,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>492</v>
+        <v>242</v>
       </c>
       <c r="C243" t="n">
         <v>1</v>
       </c>
       <c r="D243" t="n">
-        <v>778633.1634004929</v>
+        <v>465662.9706830474</v>
       </c>
     </row>
     <row r="244">
@@ -3843,13 +3843,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>493</v>
+        <v>243</v>
       </c>
       <c r="C244" t="n">
         <v>1</v>
       </c>
       <c r="D244" t="n">
-        <v>827278.7056091338</v>
+        <v>680054.4588757424</v>
       </c>
     </row>
     <row r="245">
@@ -3857,13 +3857,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>494</v>
+        <v>244</v>
       </c>
       <c r="C245" t="n">
         <v>1</v>
       </c>
       <c r="D245" t="n">
-        <v>688513.6821456932</v>
+        <v>596449.8551256369</v>
       </c>
     </row>
     <row r="246">
@@ -3871,13 +3871,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>495</v>
+        <v>245</v>
       </c>
       <c r="C246" t="n">
         <v>1</v>
       </c>
       <c r="D246" t="n">
-        <v>644878.9741338752</v>
+        <v>782934.6831974644</v>
       </c>
     </row>
     <row r="247">
@@ -3885,13 +3885,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>496</v>
+        <v>246</v>
       </c>
       <c r="C247" t="n">
         <v>1</v>
       </c>
       <c r="D247" t="n">
-        <v>977978.9312470676</v>
+        <v>618489.2301054224</v>
       </c>
     </row>
     <row r="248">
@@ -3899,13 +3899,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>497</v>
+        <v>247</v>
       </c>
       <c r="C248" t="n">
         <v>1</v>
       </c>
       <c r="D248" t="n">
-        <v>1022149.573544402</v>
+        <v>535801.4008664186</v>
       </c>
     </row>
     <row r="249">
@@ -3913,13 +3913,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>498</v>
+        <v>248</v>
       </c>
       <c r="C249" t="n">
         <v>1</v>
       </c>
       <c r="D249" t="n">
-        <v>908036.3736195543</v>
+        <v>719582.4529823927</v>
       </c>
     </row>
     <row r="250">
@@ -3927,13 +3927,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>499</v>
+        <v>249</v>
       </c>
       <c r="C250" t="n">
         <v>1</v>
       </c>
       <c r="D250" t="n">
-        <v>1040731.484848776</v>
+        <v>525972.7702389974</v>
       </c>
     </row>
     <row r="251">
@@ -3941,13 +3941,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="C251" t="n">
         <v>1</v>
       </c>
       <c r="D251" t="n">
-        <v>646584.8392479809</v>
+        <v>561479.3420950667</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados/Escenario 1/objective_value.xlsx
+++ b/Resultados/Escenario 1/objective_value.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>683537.9708842337</v>
+        <v>890167.247596142</v>
       </c>
     </row>
     <row r="3">
@@ -475,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>683374.4869958869</v>
+        <v>1143801.30586255</v>
       </c>
     </row>
     <row r="4">
@@ -489,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>675398.28910754</v>
+        <v>1089895.100191719</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>676599.612219193</v>
+        <v>1076512.778685546</v>
       </c>
     </row>
     <row r="6">
@@ -517,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>686118.5893308461</v>
+        <v>1083564.569452333</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>696898.4205832619</v>
+        <v>1192980.401227521</v>
       </c>
     </row>
     <row r="8">
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>689677.7377079353</v>
+        <v>701848.705217933</v>
       </c>
     </row>
     <row r="9">
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>687345.704975131</v>
+        <v>871065.9381807453</v>
       </c>
     </row>
     <row r="10">
@@ -573,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>717389.0295975173</v>
+        <v>1138766.405375131</v>
       </c>
     </row>
     <row r="11">
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>715964.2537091705</v>
+        <v>995633.2822611366</v>
       </c>
     </row>
     <row r="12">
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>708856.1258208236</v>
+        <v>878951.5379479052</v>
       </c>
     </row>
     <row r="13">
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>720962.5779324765</v>
+        <v>910007.0581241472</v>
       </c>
     </row>
     <row r="14">
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>716674.6500441296</v>
+        <v>1157485.013049148</v>
       </c>
     </row>
     <row r="15">
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>696198.8421557827</v>
+        <v>945594.9132698211</v>
       </c>
     </row>
     <row r="16">
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>702826.6872674358</v>
+        <v>853834.5496652653</v>
       </c>
     </row>
     <row r="17">
@@ -671,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>731757.798379089</v>
+        <v>1193857.860479725</v>
       </c>
     </row>
     <row r="18">
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>727109.5584907414</v>
+        <v>1067636.557868713</v>
       </c>
     </row>
     <row r="19">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>716084.4236023952</v>
+        <v>1040558.812432257</v>
       </c>
     </row>
     <row r="20">
@@ -713,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>711027.6347140482</v>
+        <v>871387.3569557774</v>
       </c>
     </row>
     <row r="21">
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>714186.3828257014</v>
+        <v>1017520.933338426</v>
       </c>
     </row>
     <row r="22">
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>705048.5269373547</v>
+        <v>1002104.63998015</v>
       </c>
     </row>
     <row r="23">
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>717217.1920490077</v>
+        <v>919489.6175612432</v>
       </c>
     </row>
     <row r="24">
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>734532.2291606608</v>
+        <v>1053265.108410834</v>
       </c>
     </row>
     <row r="25">
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>725681.4922723139</v>
+        <v>1033600.227688658</v>
       </c>
     </row>
     <row r="26">
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>716586.859383967</v>
+        <v>843930.7349538957</v>
       </c>
     </row>
     <row r="27">
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>724565.1794956201</v>
+        <v>1133259.630315793</v>
       </c>
     </row>
     <row r="28">
@@ -825,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>724693.4836072733</v>
+        <v>856920.8905367951</v>
       </c>
     </row>
     <row r="29">
@@ -839,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>738203.0717189272</v>
+        <v>1160369.520585166</v>
       </c>
     </row>
     <row r="30">
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>727567.6768305805</v>
+        <v>1003688.183689782</v>
       </c>
     </row>
     <row r="31">
@@ -867,7 +867,1687 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>729202.4569422302</v>
+        <v>1080861.376184393</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1191434.150750524</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>811804.8808874724</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>781342.3245510528</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1190359.496738399</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>35</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1054055.764361687</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1151344.539322359</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>37</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1004320.776294542</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>38</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1032741.354797651</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>39</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>969336.9800669719</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>40</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1027226.203408922</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>41</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>866098.5835381132</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>42</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1016270.318799281</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>43</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>993781.1873629775</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>44</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>877566.9757570497</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>45</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1176137.840118877</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>46</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1225448.669885643</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>47</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1054444.428906131</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>48</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>902656.9672777501</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>49</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>886460.8691227571</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>50</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1094112.915039618</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>51</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>821567.5678497093</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>52</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>979022.8850872348</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>53</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1156471.066489503</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>54</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>937753.8454937482</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>55</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>962667.9057968785</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>56</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1000735.595839085</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>57</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>863369.9502076681</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>58</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1085354.046586193</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>59</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="n">
+        <v>988423.161696613</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>60</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1041542.752313318</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>61</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1056490.580021413</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>62</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>761916.76866678</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>63</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1030581.851482821</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>64</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1006028.748625487</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>65</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1061231.828939387</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>66</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>960924.9157539553</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>67</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>953465.3064204599</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>68</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1189551.127772081</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>69</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>923682.7035433115</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>70</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1109192.923303054</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>71</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>775819.1709330936</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>72</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>907523.0472546936</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>73</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="n">
+        <v>894140.4550320047</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>74</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1074572.333721288</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>75</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1097903.226181596</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>76</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>868369.1839028357</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>77</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1191283.907680082</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>78</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1025722.782949236</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>79</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>863020.9563148704</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>80</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1147197.717607226</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>81</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1032043.524419225</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>82</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>827221.1535946492</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>83</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>994266.3812796858</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>84</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1131758.465212698</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>85</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>873430.4061064844</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>86</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>971471.5880988609</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>87</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1090316.745125887</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>88</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" t="n">
+        <v>924538.9757996597</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>89</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>903654.8649008193</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>90</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>962490.223259773</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>91</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>966719.9695357021</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>92</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1190050.230877591</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>93</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1161625.775224076</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>94</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="n">
+        <v>932654.1653964535</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>95</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1185587.978578315</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>96</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>965989.0707151219</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>97</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>974488.8705419562</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>98</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1089376.043870046</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>99</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" t="n">
+        <v>983773.4711508451</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>100</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>893096.9680403422</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>101</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1051303.908604866</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>102</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1287338.176580423</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>103</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" t="n">
+        <v>999194.5110092968</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>104</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1276642.737119625</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>105</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" t="n">
+        <v>837742.085907625</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>106</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" t="n">
+        <v>994449.3200765222</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>107</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1060733.466679404</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>108</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" t="n">
+        <v>868603.3343604223</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>109</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1038588.623177359</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>110</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1040126.068840179</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>111</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>979990.4573799308</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>112</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>674557.8701725649</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>113</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1129564.093194258</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>114</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>980175.8062741924</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>115</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" t="n">
+        <v>962042.6965468447</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>116</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>890944.4199599412</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>117</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" t="n">
+        <v>824334.4216815727</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>118</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1161986.157612122</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>119</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" t="n">
+        <v>860476.6450905532</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>120</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" t="n">
+        <v>868454.532614576</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>121</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1104956.656805302</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>122</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1185912.745760523</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>123</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>834558.4349185281</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>124</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>992139.3632241659</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>125</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1151817.685133396</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>126</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+      <c r="D127" t="n">
+        <v>772677.9772227646</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>127</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1115448.853390973</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>128</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1017128.19009242</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>129</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="n">
+        <v>687088.5045759011</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>130</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1184522.083976361</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>131</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1158272.055873382</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>132</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>690437.5808499601</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>133</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1036107.248375282</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>134</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1195632.836121943</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>135</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>906567.8607594635</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>136</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>777077.7716899482</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>137</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1215917.528570702</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>138</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+      <c r="D139" t="n">
+        <v>955032.2749894095</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>139</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1109928.680258217</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>140</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>904235.0148921893</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>141</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>980499.4278787281</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>142</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1145685.404918398</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>143</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" t="n">
+        <v>877162.9416980528</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>144</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" t="n">
+        <v>943067.7410918544</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>145</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>915127.0440233442</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>146</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>959076.6154585195</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>147</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1118674.910693386</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>148</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+      <c r="D149" t="n">
+        <v>971763.9147192807</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>149</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1019804.586955971</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>150</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1</v>
+      </c>
+      <c r="D151" t="n">
+        <v>935137.7240856118</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados/Escenario 1/objective_value.xlsx
+++ b/Resultados/Escenario 1/objective_value.xlsx
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>890167.247596142</v>
+        <v>831715.3548642729</v>
       </c>
     </row>
     <row r="3">
@@ -475,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1143801.30586255</v>
+        <v>815150.7673265904</v>
       </c>
     </row>
     <row r="4">
@@ -489,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1089895.100191719</v>
+        <v>815276.353788908</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1076512.778685546</v>
+        <v>825918.5482157419</v>
       </c>
     </row>
     <row r="6">
@@ -517,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1083564.569452333</v>
+        <v>827432.0639901562</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1192980.401227521</v>
+        <v>806455.8074494784</v>
       </c>
     </row>
     <row r="8">
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>701848.705217933</v>
+        <v>833677.889956266</v>
       </c>
     </row>
     <row r="9">
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>871065.9381807453</v>
+        <v>834628.187109943</v>
       </c>
     </row>
     <row r="10">
@@ -573,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1138766.405375131</v>
+        <v>827948.0411775602</v>
       </c>
     </row>
     <row r="11">
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>995633.2822611366</v>
+        <v>845223.5426398781</v>
       </c>
     </row>
     <row r="12">
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>878951.5379479052</v>
+        <v>834972.2131021956</v>
       </c>
     </row>
     <row r="13">
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>910007.0581241472</v>
+        <v>846373.5439623627</v>
       </c>
     </row>
     <row r="14">
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1157485.013049148</v>
+        <v>853104.4336289815</v>
       </c>
     </row>
     <row r="15">
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>945594.9132698211</v>
+        <v>800667.5270912992</v>
       </c>
     </row>
     <row r="16">
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>853834.5496652653</v>
+        <v>863005.7343705522</v>
       </c>
     </row>
     <row r="17">
@@ -671,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1193857.860479725</v>
+        <v>840689.2691989989</v>
       </c>
     </row>
     <row r="18">
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1067636.557868713</v>
+        <v>850373.1656613165</v>
       </c>
     </row>
     <row r="19">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1040558.812432257</v>
+        <v>849550.9011236341</v>
       </c>
     </row>
     <row r="20">
@@ -713,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>871387.3569557774</v>
+        <v>853675.8745859516</v>
       </c>
     </row>
     <row r="21">
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1017520.933338426</v>
+        <v>857848.2940482658</v>
       </c>
     </row>
     <row r="22">
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1002104.63998015</v>
+        <v>820145.009510587</v>
       </c>
     </row>
     <row r="23">
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>919489.6175612432</v>
+        <v>867811.7509729047</v>
       </c>
     </row>
     <row r="24">
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1053265.108410834</v>
+        <v>849815.6174352224</v>
       </c>
     </row>
     <row r="25">
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1033600.227688658</v>
+        <v>863166.16189754</v>
       </c>
     </row>
     <row r="26">
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>843930.7349538957</v>
+        <v>842871.4503598575</v>
       </c>
     </row>
     <row r="27">
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1133259.630315793</v>
+        <v>870078.8208221751</v>
       </c>
     </row>
     <row r="28">
@@ -825,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>856920.8905367951</v>
+        <v>863199.152284493</v>
       </c>
     </row>
     <row r="29">
@@ -839,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>1160369.520585166</v>
+        <v>861189.0187468107</v>
       </c>
     </row>
     <row r="30">
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>1003688.183689782</v>
+        <v>864545.7032091253</v>
       </c>
     </row>
     <row r="31">
@@ -867,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>1080861.376184393</v>
+        <v>861291.0336714414</v>
       </c>
     </row>
     <row r="32">
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>1191434.150750524</v>
+        <v>752273.125116103</v>
       </c>
     </row>
     <row r="33">
@@ -895,7 +895,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>811804.8808874724</v>
+        <v>749966.7605334972</v>
       </c>
     </row>
     <row r="34">
@@ -909,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>781342.3245510528</v>
+        <v>751997.9749508799</v>
       </c>
     </row>
     <row r="35">
@@ -923,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>1190359.496738399</v>
+        <v>749985.1933682618</v>
       </c>
     </row>
     <row r="36">
@@ -937,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>1054055.764361687</v>
+        <v>751266.8177856442</v>
       </c>
     </row>
     <row r="37">
@@ -951,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>1151344.539322359</v>
+        <v>750733.8782030266</v>
       </c>
     </row>
     <row r="38">
@@ -965,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>1004320.776294542</v>
+        <v>750425.8406204093</v>
       </c>
     </row>
     <row r="39">
@@ -979,7 +979,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>1032741.354797651</v>
+        <v>751103.8344435834</v>
       </c>
     </row>
     <row r="40">
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>969336.9800669719</v>
+        <v>752655.300049382</v>
       </c>
     </row>
     <row r="41">
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>1027226.203408922</v>
+        <v>750890.9424667651</v>
       </c>
     </row>
     <row r="42">
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>866098.5835381132</v>
+        <v>750343.6108841472</v>
       </c>
     </row>
     <row r="43">
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>1016270.318799281</v>
+        <v>752002.3113015293</v>
       </c>
     </row>
     <row r="44">
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>993781.1873629775</v>
+        <v>751931.3847189114</v>
       </c>
     </row>
     <row r="45">
@@ -1063,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>877566.9757570497</v>
+        <v>749880.8221362941</v>
       </c>
     </row>
     <row r="46">
@@ -1077,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>1176137.840118877</v>
+        <v>752032.3885536762</v>
       </c>
     </row>
     <row r="47">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>1225448.669885643</v>
+        <v>750968.4349710586</v>
       </c>
     </row>
     <row r="48">
@@ -1105,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>1054444.428906131</v>
+        <v>751516.7533884409</v>
       </c>
     </row>
     <row r="49">
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>902656.9672777501</v>
+        <v>751089.9618058237</v>
       </c>
     </row>
     <row r="50">
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>886460.8691227571</v>
+        <v>751235.0702232061</v>
       </c>
     </row>
     <row r="51">
@@ -1147,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>1094112.915039618</v>
+        <v>751883.6066405884</v>
       </c>
     </row>
     <row r="52">
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>821567.5678497093</v>
+        <v>751617.5120579706</v>
       </c>
     </row>
     <row r="53">
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>979022.8850872348</v>
+        <v>751379.501475353</v>
       </c>
     </row>
     <row r="54">
@@ -1189,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>1156471.066489503</v>
+        <v>751909.8068927355</v>
       </c>
     </row>
     <row r="55">
@@ -1203,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>937753.8454937482</v>
+        <v>751711.5243101178</v>
       </c>
     </row>
     <row r="56">
@@ -1217,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>962667.9057968785</v>
+        <v>751446.8367275002</v>
       </c>
     </row>
     <row r="57">
@@ -1231,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>1000735.595839085</v>
+        <v>751401.5531448825</v>
       </c>
     </row>
     <row r="58">
@@ -1245,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>863369.9502076681</v>
+        <v>751575.3845622649</v>
       </c>
     </row>
     <row r="59">
@@ -1259,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>1085354.046586193</v>
+        <v>751861.1319796442</v>
       </c>
     </row>
     <row r="60">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>988423.161696613</v>
+        <v>752001.8883970296</v>
       </c>
     </row>
     <row r="61">
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>1041542.752313318</v>
+        <v>751843.9598144011</v>
       </c>
     </row>
     <row r="62">
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>1056490.580021413</v>
+        <v>748593.8643660854</v>
       </c>
     </row>
     <row r="63">
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>761916.76866678</v>
+        <v>748607.6085979865</v>
       </c>
     </row>
     <row r="64">
@@ -1329,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>1030581.851482821</v>
+        <v>748711.657829887</v>
       </c>
     </row>
     <row r="65">
@@ -1343,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>1006028.748625487</v>
+        <v>748680.5920617861</v>
       </c>
     </row>
     <row r="66">
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>1061231.828939387</v>
+        <v>748635.9432936867</v>
       </c>
     </row>
     <row r="67">
@@ -1371,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>960924.9157539553</v>
+        <v>748648.9755255874</v>
       </c>
     </row>
     <row r="68">
@@ -1385,7 +1385,7 @@
         <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>953465.3064204599</v>
+        <v>748652.1987574882</v>
       </c>
     </row>
     <row r="69">
@@ -1399,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>1189551.127772081</v>
+        <v>748658.6179893888</v>
       </c>
     </row>
     <row r="70">
@@ -1413,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>923682.7035433115</v>
+        <v>748648.692221289</v>
       </c>
     </row>
     <row r="71">
@@ -1427,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>1109192.923303054</v>
+        <v>748664.3004531895</v>
       </c>
     </row>
     <row r="72">
@@ -1441,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>775819.1709330936</v>
+        <v>748593.5106850906</v>
       </c>
     </row>
     <row r="73">
@@ -1455,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>907523.0472546936</v>
+        <v>748667.8949169911</v>
       </c>
     </row>
     <row r="74">
@@ -1469,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>894140.4550320047</v>
+        <v>748684.6891488918</v>
       </c>
     </row>
     <row r="75">
@@ -1483,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>1074572.333721288</v>
+        <v>748607.7503807924</v>
       </c>
     </row>
     <row r="76">
@@ -1497,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>1097903.226181596</v>
+        <v>748704.6816126932</v>
       </c>
     </row>
     <row r="77">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>868369.1839028357</v>
+        <v>748664.0588445938</v>
       </c>
     </row>
     <row r="78">
@@ -1525,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>1191283.907680082</v>
+        <v>748640.4820764945</v>
       </c>
     </row>
     <row r="79">
@@ -1539,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>1025722.782949236</v>
+        <v>748663.0913083951</v>
       </c>
     </row>
     <row r="80">
@@ -1553,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>863020.9563148704</v>
+        <v>748629.3625402958</v>
       </c>
     </row>
     <row r="81">
@@ -1567,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>1147197.717607226</v>
+        <v>748679.8077721967</v>
       </c>
     </row>
     <row r="82">
@@ -1581,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>1032043.524419225</v>
+        <v>748647.4070040975</v>
       </c>
     </row>
     <row r="83">
@@ -1595,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>827221.1535946492</v>
+        <v>748654.3882359982</v>
       </c>
     </row>
     <row r="84">
@@ -1609,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>994266.3812796858</v>
+        <v>748660.8964678989</v>
       </c>
     </row>
     <row r="85">
@@ -1623,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>1131758.465212698</v>
+        <v>748652.0776997996</v>
       </c>
     </row>
     <row r="86">
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>873430.4061064844</v>
+        <v>748664.6509316978</v>
       </c>
     </row>
     <row r="87">
@@ -1651,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>971471.5880988609</v>
+        <v>748651.246163598</v>
       </c>
     </row>
     <row r="88">
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>1090316.745125887</v>
+        <v>748658.9193954993</v>
       </c>
     </row>
     <row r="89">
@@ -1679,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>924538.9757996597</v>
+        <v>748651.6236274</v>
       </c>
     </row>
     <row r="90">
@@ -1693,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>903654.8649008193</v>
+        <v>748655.9628593007</v>
       </c>
     </row>
     <row r="91">
@@ -1707,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>962490.223259773</v>
+        <v>748660.2450911992</v>
       </c>
     </row>
     <row r="92">
@@ -1721,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>966719.9695357021</v>
+        <v>748583.7592072221</v>
       </c>
     </row>
     <row r="93">
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>1190050.230877591</v>
+        <v>748590.8370629903</v>
       </c>
     </row>
     <row r="94">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>1161625.775224076</v>
+        <v>748591.6209190085</v>
       </c>
     </row>
     <row r="95">
@@ -1763,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>932654.1653964535</v>
+        <v>748601.2557748933</v>
       </c>
     </row>
     <row r="96">
@@ -1777,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>1185587.978578315</v>
+        <v>748550.4076307776</v>
       </c>
     </row>
     <row r="97">
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>965989.0707151219</v>
+        <v>748624.4364865423</v>
       </c>
     </row>
     <row r="98">
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>974488.8705419562</v>
+        <v>748582.4313425472</v>
       </c>
     </row>
     <row r="99">
@@ -1819,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>1089376.043870046</v>
+        <v>748559.8157575072</v>
       </c>
     </row>
     <row r="100">
@@ -1833,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>983773.4711508451</v>
+        <v>748586.2624951736</v>
       </c>
     </row>
     <row r="101">
@@ -1847,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>893096.9680403422</v>
+        <v>748615.7963510575</v>
       </c>
     </row>
     <row r="102">
@@ -1861,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>1051303.908604866</v>
+        <v>748561.8802069288</v>
       </c>
     </row>
     <row r="103">
@@ -1875,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>1287338.176580423</v>
+        <v>748577.4070628055</v>
       </c>
     </row>
     <row r="104">
@@ -1889,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>999194.5110092968</v>
+        <v>748618.501918525</v>
       </c>
     </row>
     <row r="105">
@@ -1903,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>1276642.737119625</v>
+        <v>748561.5327745969</v>
       </c>
     </row>
     <row r="106">
@@ -1917,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>837742.085907625</v>
+        <v>748597.7006304815</v>
       </c>
     </row>
     <row r="107">
@@ -1931,7 +1931,7 @@
         <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>994449.3200765222</v>
+        <v>748591.8924863661</v>
       </c>
     </row>
     <row r="108">
@@ -1945,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>1060733.466679404</v>
+        <v>748576.9323422508</v>
       </c>
     </row>
     <row r="109">
@@ -1959,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>868603.3343604223</v>
+        <v>748580.0961981355</v>
       </c>
     </row>
     <row r="110">
@@ -1973,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>1038588.623177359</v>
+        <v>748577.5140540203</v>
       </c>
     </row>
     <row r="111">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>1040126.068840179</v>
+        <v>748599.5269099048</v>
       </c>
     </row>
     <row r="112">
@@ -2001,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>979990.4573799308</v>
+        <v>748574.0497657252</v>
       </c>
     </row>
     <row r="113">
@@ -2015,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>674557.8701725649</v>
+        <v>748589.7098152249</v>
       </c>
     </row>
     <row r="114">
@@ -2029,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>1129564.093194258</v>
+        <v>748573.074283796</v>
       </c>
     </row>
     <row r="115">
@@ -2043,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>980175.8062741924</v>
+        <v>748586.0871398945</v>
       </c>
     </row>
     <row r="116">
@@ -2057,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="D116" t="n">
-        <v>962042.6965468447</v>
+        <v>748572.1929957794</v>
       </c>
     </row>
     <row r="117">
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>890944.4199599412</v>
+        <v>748581.142851664</v>
       </c>
     </row>
     <row r="118">
@@ -2085,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>824334.4216815727</v>
+        <v>748582.7907075485</v>
       </c>
     </row>
     <row r="119">
@@ -2099,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>1161986.157612122</v>
+        <v>748578.2025634332</v>
       </c>
     </row>
     <row r="120">
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>860476.6450905532</v>
+        <v>748576.4224193179</v>
       </c>
     </row>
     <row r="121">
@@ -2127,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>868454.532614576</v>
+        <v>748576.6412751965</v>
       </c>
     </row>
     <row r="122">
@@ -2141,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>1104956.656805302</v>
+        <v>748590.4365389498</v>
       </c>
     </row>
     <row r="123">
@@ -2155,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>1185912.745760523</v>
+        <v>748656.9680891027</v>
       </c>
     </row>
     <row r="124">
@@ -2169,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>834558.4349185281</v>
+        <v>748701.6980109565</v>
       </c>
     </row>
     <row r="125">
@@ -2183,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>992139.3632241659</v>
+        <v>748605.6609328091</v>
       </c>
     </row>
     <row r="126">
@@ -2197,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>1151817.685133396</v>
+        <v>748679.1118546643</v>
       </c>
     </row>
     <row r="127">
@@ -2211,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>772677.9772227646</v>
+        <v>748645.6467765175</v>
       </c>
     </row>
     <row r="128">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>1115448.853390973</v>
+        <v>748596.0696983722</v>
       </c>
     </row>
     <row r="129">
@@ -2239,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>1017128.19009242</v>
+        <v>748708.989620226</v>
       </c>
     </row>
     <row r="130">
@@ -2253,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>687088.5045759011</v>
+        <v>748621.34954208</v>
       </c>
     </row>
     <row r="131">
@@ -2267,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>1184522.083976361</v>
+        <v>748600.1024639338</v>
       </c>
     </row>
     <row r="132">
@@ -2281,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>1158272.055873382</v>
+        <v>748705.0483857876</v>
       </c>
     </row>
     <row r="133">
@@ -2295,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>690437.5808499601</v>
+        <v>748653.2173076416</v>
       </c>
     </row>
     <row r="134">
@@ -2309,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>1036107.248375282</v>
+        <v>748643.7482294955</v>
       </c>
     </row>
     <row r="135">
@@ -2323,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>1195632.836121943</v>
+        <v>748647.2761513494</v>
       </c>
     </row>
     <row r="136">
@@ -2337,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="D136" t="n">
-        <v>906567.8607594635</v>
+        <v>748630.4420732032</v>
       </c>
     </row>
     <row r="137">
@@ -2351,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>777077.7716899482</v>
+        <v>748669.2939950572</v>
       </c>
     </row>
     <row r="138">
@@ -2365,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="D138" t="n">
-        <v>1215917.528570702</v>
+        <v>748645.3229169112</v>
       </c>
     </row>
     <row r="139">
@@ -2379,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>955032.2749894095</v>
+        <v>748628.470838765</v>
       </c>
     </row>
     <row r="140">
@@ -2393,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>1109928.680258217</v>
+        <v>748676.1377606193</v>
       </c>
     </row>
     <row r="141">
@@ -2407,7 +2407,7 @@
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>904235.0148921893</v>
+        <v>748610.6606824732</v>
       </c>
     </row>
     <row r="142">
@@ -2421,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>980499.4278787281</v>
+        <v>748680.3576043271</v>
       </c>
     </row>
     <row r="143">
@@ -2435,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>1145685.404918398</v>
+        <v>748636.7685261811</v>
       </c>
     </row>
     <row r="144">
@@ -2449,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>877162.9416980528</v>
+        <v>748666.5854480349</v>
       </c>
     </row>
     <row r="145">
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>943067.7410918544</v>
+        <v>748642.109369889</v>
       </c>
     </row>
     <row r="146">
@@ -2477,7 +2477,7 @@
         <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>915127.0440233442</v>
+        <v>748656.1542917432</v>
       </c>
     </row>
     <row r="147">
@@ -2491,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>959076.6154585195</v>
+        <v>748659.6362135971</v>
       </c>
     </row>
     <row r="148">
@@ -2505,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>1118674.910693386</v>
+        <v>748653.204135451</v>
       </c>
     </row>
     <row r="149">
@@ -2519,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>971763.9147192807</v>
+        <v>748650.713057305</v>
       </c>
     </row>
     <row r="150">
@@ -2533,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>1019804.586955971</v>
+        <v>748654.3279791588</v>
       </c>
     </row>
     <row r="151">
@@ -2547,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>935137.7240856118</v>
+        <v>748655.2809010127</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados/Escenario 1/objective_value.xlsx
+++ b/Resultados/Escenario 1/objective_value.xlsx
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>831715.3548642729</v>
+        <v>1085846.882781605</v>
       </c>
     </row>
     <row r="3">
@@ -475,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>815150.7673265904</v>
+        <v>1102285.099817291</v>
       </c>
     </row>
     <row r="4">
@@ -489,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>815276.353788908</v>
+        <v>1082634.262852977</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>825918.5482157419</v>
+        <v>1106003.733635877</v>
       </c>
     </row>
     <row r="6">
@@ -517,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>827432.0639901562</v>
+        <v>1084783.488863939</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>806455.8074494784</v>
+        <v>1079422.859212822</v>
       </c>
     </row>
     <row r="8">
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>833677.889956266</v>
+        <v>1088301.230509073</v>
       </c>
     </row>
     <row r="9">
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>834628.187109943</v>
+        <v>1098978.667384271</v>
       </c>
     </row>
     <row r="10">
@@ -573,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>827948.0411775602</v>
+        <v>1097270.910204245</v>
       </c>
     </row>
     <row r="11">
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>845223.5426398781</v>
+        <v>1135965.035239931</v>
       </c>
     </row>
     <row r="12">
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>834972.2131021956</v>
+        <v>1098130.844275618</v>
       </c>
     </row>
     <row r="13">
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>846373.5439623627</v>
+        <v>1106052.358311302</v>
       </c>
     </row>
     <row r="14">
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>853104.4336289815</v>
+        <v>1094756.50134699</v>
       </c>
     </row>
     <row r="15">
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>800667.5270912992</v>
+        <v>1124769.400382676</v>
       </c>
     </row>
     <row r="16">
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>863005.7343705522</v>
+        <v>1136073.221418363</v>
       </c>
     </row>
     <row r="17">
@@ -671,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>840689.2691989989</v>
+        <v>1129893.840454049</v>
       </c>
     </row>
     <row r="18">
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>850373.1656613165</v>
+        <v>1094256.367489735</v>
       </c>
     </row>
     <row r="19">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>849550.9011236341</v>
+        <v>1075118.554525421</v>
       </c>
     </row>
     <row r="20">
@@ -713,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>853675.8745859516</v>
+        <v>1145024.397561107</v>
       </c>
     </row>
     <row r="21">
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>857848.2940482658</v>
+        <v>1121458.286596794</v>
       </c>
     </row>
     <row r="22">
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>820145.009510587</v>
+        <v>1110419.55563248</v>
       </c>
     </row>
     <row r="23">
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>867811.7509729047</v>
+        <v>1092978.939668166</v>
       </c>
     </row>
     <row r="24">
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>849815.6174352224</v>
+        <v>1145745.70670385</v>
       </c>
     </row>
     <row r="25">
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>863166.16189754</v>
+        <v>1137958.558739538</v>
       </c>
     </row>
     <row r="26">
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>842871.4503598575</v>
+        <v>1116209.713775224</v>
       </c>
     </row>
     <row r="27">
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>870078.8208221751</v>
+        <v>1142396.921810911</v>
       </c>
     </row>
     <row r="28">
@@ -825,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>863199.152284493</v>
+        <v>1117601.912846597</v>
       </c>
     </row>
     <row r="29">
@@ -839,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>861189.0187468107</v>
+        <v>1139607.596882283</v>
       </c>
     </row>
     <row r="30">
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>864545.7032091253</v>
+        <v>1120934.256917969</v>
       </c>
     </row>
     <row r="31">
@@ -867,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>861291.0336714414</v>
+        <v>1139146.034953641</v>
       </c>
     </row>
     <row r="32">
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>752273.125116103</v>
+        <v>1020927.235217303</v>
       </c>
     </row>
     <row r="33">
@@ -895,7 +895,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>749966.7605334972</v>
+        <v>1020929.628656029</v>
       </c>
     </row>
     <row r="34">
@@ -909,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>751997.9749508799</v>
+        <v>1020941.501094751</v>
       </c>
     </row>
     <row r="35">
@@ -923,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>749985.1933682618</v>
+        <v>1020926.743533497</v>
       </c>
     </row>
     <row r="36">
@@ -937,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>751266.8177856442</v>
+        <v>1020937.929972206</v>
       </c>
     </row>
     <row r="37">
@@ -951,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>750733.8782030266</v>
+        <v>1020928.047410965</v>
       </c>
     </row>
     <row r="38">
@@ -965,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>750425.8406204093</v>
+        <v>1020929.65784969</v>
       </c>
     </row>
     <row r="39">
@@ -979,7 +979,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>751103.8344435834</v>
+        <v>1020923.791215841</v>
       </c>
     </row>
     <row r="40">
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>752655.300049382</v>
+        <v>1020925.495799727</v>
       </c>
     </row>
     <row r="41">
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>750890.9424667651</v>
+        <v>1020923.016238473</v>
       </c>
     </row>
     <row r="42">
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>750343.6108841472</v>
+        <v>1020927.460677184</v>
       </c>
     </row>
     <row r="43">
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>752002.3113015293</v>
+        <v>1020923.584115937</v>
       </c>
     </row>
     <row r="44">
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>751931.3847189114</v>
+        <v>1020921.895554668</v>
       </c>
     </row>
     <row r="45">
@@ -1063,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>749880.8221362941</v>
+        <v>1020924.193993386</v>
       </c>
     </row>
     <row r="46">
@@ -1077,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>752032.3885536762</v>
+        <v>1020917.639432132</v>
       </c>
     </row>
     <row r="47">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>750968.4349710586</v>
+        <v>1020917.30987085</v>
       </c>
     </row>
     <row r="48">
@@ -1105,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>751516.7533884409</v>
+        <v>1020917.519309595</v>
       </c>
     </row>
     <row r="49">
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>751089.9618058237</v>
+        <v>1020914.45374832</v>
       </c>
     </row>
     <row r="50">
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>751235.0702232061</v>
+        <v>1020912.675187051</v>
       </c>
     </row>
     <row r="51">
@@ -1147,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>751883.6066405884</v>
+        <v>1020915.650625777</v>
       </c>
     </row>
     <row r="52">
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>751617.5120579706</v>
+        <v>1020913.255064522</v>
       </c>
     </row>
     <row r="53">
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>751379.501475353</v>
+        <v>1020914.224503253</v>
       </c>
     </row>
     <row r="54">
@@ -1189,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>751909.8068927355</v>
+        <v>1020911.075941984</v>
       </c>
     </row>
     <row r="55">
@@ -1203,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>751711.5243101178</v>
+        <v>1020912.742380697</v>
       </c>
     </row>
     <row r="56">
@@ -1217,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>751446.8367275002</v>
+        <v>1020909.616819392</v>
       </c>
     </row>
     <row r="57">
@@ -1231,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>751401.5531448825</v>
+        <v>1020908.542258181</v>
       </c>
     </row>
     <row r="58">
@@ -1245,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>751575.3845622649</v>
+        <v>1020909.504696907</v>
       </c>
     </row>
     <row r="59">
@@ -1259,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>751861.1319796442</v>
+        <v>1020902.296135644</v>
       </c>
     </row>
     <row r="60">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>752001.8883970296</v>
+        <v>1020905.309574372</v>
       </c>
     </row>
     <row r="61">
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>751843.9598144011</v>
+        <v>1020904.907013108</v>
       </c>
     </row>
     <row r="62">
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>748593.8643660854</v>
+        <v>1021011.109171763</v>
       </c>
     </row>
     <row r="63">
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>748607.6085979865</v>
+        <v>1021000.581095624</v>
       </c>
     </row>
     <row r="64">
@@ -1329,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>748711.657829887</v>
+        <v>1021059.898213031</v>
       </c>
     </row>
     <row r="65">
@@ -1343,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>748680.5920617861</v>
+        <v>1021003.248749672</v>
       </c>
     </row>
     <row r="66">
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>748635.9432936867</v>
+        <v>1021087.512673522</v>
       </c>
     </row>
     <row r="67">
@@ -1371,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>748648.9755255874</v>
+        <v>1020896.36859751</v>
       </c>
     </row>
     <row r="68">
@@ -1385,7 +1385,7 @@
         <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>748652.1987574882</v>
+        <v>1021008.985520118</v>
       </c>
     </row>
     <row r="69">
@@ -1399,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>748658.6179893888</v>
+        <v>1021165.606445227</v>
       </c>
     </row>
     <row r="70">
@@ -1413,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>748648.692221289</v>
+        <v>1021039.285369086</v>
       </c>
     </row>
     <row r="71">
@@ -1427,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>748664.3004531895</v>
+        <v>1020915.621292935</v>
       </c>
     </row>
     <row r="72">
@@ -1441,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>748593.5106850906</v>
+        <v>1021148.158216804</v>
       </c>
     </row>
     <row r="73">
@@ -1455,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>748667.8949169911</v>
+        <v>1020923.341141097</v>
       </c>
     </row>
     <row r="74">
@@ -1469,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>748684.6891488918</v>
+        <v>1021102.02325807</v>
       </c>
     </row>
     <row r="75">
@@ -1483,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>748607.7503807924</v>
+        <v>1021072.012794831</v>
       </c>
     </row>
     <row r="76">
@@ -1497,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>748704.6816126932</v>
+        <v>1021047.369912196</v>
       </c>
     </row>
     <row r="77">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>748664.0588445938</v>
+        <v>1020951.297449012</v>
       </c>
     </row>
     <row r="78">
@@ -1525,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>748640.4820764945</v>
+        <v>1021087.790372871</v>
       </c>
     </row>
     <row r="79">
@@ -1539,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>748663.0913083951</v>
+        <v>1020998.751296729</v>
       </c>
     </row>
     <row r="80">
@@ -1553,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>748629.3625402958</v>
+        <v>1021081.966220588</v>
       </c>
     </row>
     <row r="81">
@@ -1567,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>748679.8077721967</v>
+        <v>1021040.319530871</v>
       </c>
     </row>
     <row r="82">
@@ -1581,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>748647.4070040975</v>
+        <v>1021007.867681203</v>
       </c>
     </row>
     <row r="83">
@@ -1595,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>748654.3882359982</v>
+        <v>1021078.830605061</v>
       </c>
     </row>
     <row r="84">
@@ -1609,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>748660.8964678989</v>
+        <v>1021026.37552892</v>
       </c>
     </row>
     <row r="85">
@@ -1623,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>748652.0776997996</v>
+        <v>1021002.464647562</v>
       </c>
     </row>
     <row r="86">
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>748664.6509316978</v>
+        <v>1021062.101183089</v>
       </c>
     </row>
     <row r="87">
@@ -1651,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>748651.246163598</v>
+        <v>1021054.506106947</v>
       </c>
     </row>
     <row r="88">
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>748658.9193954993</v>
+        <v>1021029.682030802</v>
       </c>
     </row>
     <row r="89">
@@ -1679,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>748651.6236274</v>
+        <v>1021055.881146938</v>
       </c>
     </row>
     <row r="90">
@@ -1693,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>748655.9628593007</v>
+        <v>1021040.821684956</v>
       </c>
     </row>
     <row r="91">
@@ -1707,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>748660.2450911992</v>
+        <v>1021044.661608803</v>
       </c>
     </row>
     <row r="92">
@@ -1721,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>748583.7592072221</v>
+        <v>1020969.848363704</v>
       </c>
     </row>
     <row r="93">
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>748590.8370629903</v>
+        <v>1021078.718966319</v>
       </c>
     </row>
     <row r="94">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>748591.6209190085</v>
+        <v>1020998.572304337</v>
       </c>
     </row>
     <row r="95">
@@ -1763,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>748601.2557748933</v>
+        <v>1021020.318152138</v>
       </c>
     </row>
     <row r="96">
@@ -1777,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>748550.4076307776</v>
+        <v>1020954.142999901</v>
       </c>
     </row>
     <row r="97">
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>748624.4364865423</v>
+        <v>1021058.319847663</v>
       </c>
     </row>
     <row r="98">
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>748582.4313425472</v>
+        <v>1020933.344695426</v>
       </c>
     </row>
     <row r="99">
@@ -1819,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>748559.8157575072</v>
+        <v>1021085.895543188</v>
       </c>
     </row>
     <row r="100">
@@ -1833,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>748586.2624951736</v>
+        <v>1020969.682390951</v>
       </c>
     </row>
     <row r="101">
@@ -1847,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>748615.7963510575</v>
+        <v>1021002.883238712</v>
       </c>
     </row>
     <row r="102">
@@ -1861,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>748561.8802069288</v>
+        <v>1021035.645086475</v>
       </c>
     </row>
     <row r="103">
@@ -1875,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>748577.4070628055</v>
+        <v>1021000.243934238</v>
       </c>
     </row>
     <row r="104">
@@ -1889,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>748618.501918525</v>
+        <v>1021016.068782</v>
       </c>
     </row>
     <row r="105">
@@ -1903,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>748561.5327745969</v>
+        <v>1021003.280629762</v>
       </c>
     </row>
     <row r="106">
@@ -1917,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>748597.7006304815</v>
+        <v>1021051.904477523</v>
       </c>
     </row>
     <row r="107">
@@ -1931,7 +1931,7 @@
         <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>748591.8924863661</v>
+        <v>1021010.621325287</v>
       </c>
     </row>
     <row r="108">
@@ -1945,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>748576.9323422508</v>
+        <v>1020975.72917305</v>
       </c>
     </row>
     <row r="109">
@@ -1959,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>748580.0961981355</v>
+        <v>1021022.699020813</v>
       </c>
     </row>
     <row r="110">
@@ -1973,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>748577.5140540203</v>
+        <v>1021036.628868575</v>
       </c>
     </row>
     <row r="111">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>748599.5269099048</v>
+        <v>1021016.065716337</v>
       </c>
     </row>
     <row r="112">
@@ -2001,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>748574.0497657252</v>
+        <v>1021000.4745641</v>
       </c>
     </row>
     <row r="113">
@@ -2015,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>748589.7098152249</v>
+        <v>1021032.70941186</v>
       </c>
     </row>
     <row r="114">
@@ -2029,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>748573.074283796</v>
+        <v>1021008.257259625</v>
       </c>
     </row>
     <row r="115">
@@ -2043,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>748586.0871398945</v>
+        <v>1020987.948107387</v>
       </c>
     </row>
     <row r="116">
@@ -2057,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="D116" t="n">
-        <v>748572.1929957794</v>
+        <v>1021024.78539386</v>
       </c>
     </row>
     <row r="117">
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>748581.142851664</v>
+        <v>1021009.940364203</v>
       </c>
     </row>
     <row r="118">
@@ -2085,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>748582.7907075485</v>
+        <v>1021012.086966804</v>
       </c>
     </row>
     <row r="119">
@@ -2099,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>748578.2025634332</v>
+        <v>1021024.435304889</v>
       </c>
     </row>
     <row r="120">
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>748576.4224193179</v>
+        <v>1021016.384152651</v>
       </c>
     </row>
     <row r="121">
@@ -2127,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>748576.6412751965</v>
+        <v>1021019.894000414</v>
       </c>
     </row>
     <row r="122">
@@ -2141,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>748590.4365389498</v>
+        <v>1020967.268481094</v>
       </c>
     </row>
     <row r="123">
@@ -2155,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>748656.9680891027</v>
+        <v>1021013.702969919</v>
       </c>
     </row>
     <row r="124">
@@ -2169,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>748701.6980109565</v>
+        <v>1020970.01532231</v>
       </c>
     </row>
     <row r="125">
@@ -2183,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>748605.6609328091</v>
+        <v>1020999.478432305</v>
       </c>
     </row>
     <row r="126">
@@ -2197,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>748679.1118546643</v>
+        <v>1021001.615542301</v>
       </c>
     </row>
     <row r="127">
@@ -2211,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>748645.6467765175</v>
+        <v>1020991.208652296</v>
       </c>
     </row>
     <row r="128">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>748596.0696983722</v>
+        <v>1020953.871762292</v>
       </c>
     </row>
     <row r="129">
@@ -2239,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>748708.989620226</v>
+        <v>1020997.778872287</v>
       </c>
     </row>
     <row r="130">
@@ -2253,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>748621.34954208</v>
+        <v>1020993.892982282</v>
       </c>
     </row>
     <row r="131">
@@ -2267,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>748600.1024639338</v>
+        <v>1020979.235092278</v>
       </c>
     </row>
     <row r="132">
@@ -2281,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>748705.0483857876</v>
+        <v>1021022.269202273</v>
       </c>
     </row>
     <row r="133">
@@ -2295,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>748653.2173076416</v>
+        <v>1020977.385312268</v>
       </c>
     </row>
     <row r="134">
@@ -2309,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>748643.7482294955</v>
+        <v>1021006.436883093</v>
       </c>
     </row>
     <row r="135">
@@ -2323,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>748647.2761513494</v>
+        <v>1020993.371071429</v>
       </c>
     </row>
     <row r="136">
@@ -2337,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="D136" t="n">
-        <v>748630.4420732032</v>
+        <v>1020940.438181425</v>
       </c>
     </row>
     <row r="137">
@@ -2351,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>748669.2939950572</v>
+        <v>1021007.190798332</v>
       </c>
     </row>
     <row r="138">
@@ -2365,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="D138" t="n">
-        <v>748645.3229169112</v>
+        <v>1020971.798894503</v>
       </c>
     </row>
     <row r="139">
@@ -2379,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>748628.470838765</v>
+        <v>1021006.656004498</v>
       </c>
     </row>
     <row r="140">
@@ -2393,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>748676.1377606193</v>
+        <v>1020977.996114493</v>
       </c>
     </row>
     <row r="141">
@@ -2407,7 +2407,7 @@
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>748610.6606824732</v>
+        <v>1021012.521224489</v>
       </c>
     </row>
     <row r="142">
@@ -2421,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>748680.3576043271</v>
+        <v>1020985.757334484</v>
       </c>
     </row>
     <row r="143">
@@ -2435,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>748636.7685261811</v>
+        <v>1020965.828444479</v>
       </c>
     </row>
     <row r="144">
@@ -2449,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>748666.5854480349</v>
+        <v>1020972.326554474</v>
       </c>
     </row>
     <row r="145">
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>748642.109369889</v>
+        <v>1021014.89866447</v>
       </c>
     </row>
     <row r="146">
@@ -2477,7 +2477,7 @@
         <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>748656.1542917432</v>
+        <v>1020982.700774434</v>
       </c>
     </row>
     <row r="147">
@@ -2491,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>748659.6362135971</v>
+        <v>1020987.85588446</v>
       </c>
     </row>
     <row r="148">
@@ -2505,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>748653.204135451</v>
+        <v>1020985.598994455</v>
       </c>
     </row>
     <row r="149">
@@ -2519,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>748650.713057305</v>
+        <v>1020989.479104451</v>
       </c>
     </row>
     <row r="150">
@@ -2533,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>748654.3279791588</v>
+        <v>1020985.825214446</v>
       </c>
     </row>
     <row r="151">
@@ -2547,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>748655.2809010127</v>
+        <v>1020985.582324432</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados/Escenario 1/objective_value.xlsx
+++ b/Resultados/Escenario 1/objective_value.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1064127.588611981</v>
+        <v>1081494.938165869</v>
       </c>
     </row>
     <row r="3">
@@ -475,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1063680.716607216</v>
+        <v>1101001.108476447</v>
       </c>
     </row>
     <row r="4">
@@ -489,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1056196.947602449</v>
+        <v>1080733.112787025</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1079513.668999441</v>
+        <v>1084307.670723996</v>
       </c>
     </row>
     <row r="6">
@@ -517,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1073213.783541595</v>
+        <v>1114013.497938387</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1058455.809573191</v>
+        <v>1136517.901092367</v>
       </c>
     </row>
     <row r="8">
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1069579.815057574</v>
+        <v>1088384.225496346</v>
       </c>
     </row>
     <row r="9">
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1079351.072024361</v>
+        <v>1082172.898128478</v>
       </c>
     </row>
     <row r="10">
@@ -573,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1078762.66522194</v>
+        <v>1078496.097169555</v>
       </c>
     </row>
     <row r="11">
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1079507.698217173</v>
+        <v>1095264.257480133</v>
       </c>
     </row>
     <row r="12">
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1089173.698212406</v>
+        <v>1125780.016790711</v>
       </c>
     </row>
     <row r="13">
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1085032.989207638</v>
+        <v>1110815.61210129</v>
       </c>
     </row>
     <row r="14">
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1096362.601202872</v>
+        <v>1132565.071411868</v>
       </c>
     </row>
     <row r="15">
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1093000.104198104</v>
+        <v>1050091.246722446</v>
       </c>
     </row>
     <row r="16">
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1088207.436193337</v>
+        <v>1102839.726033024</v>
       </c>
     </row>
     <row r="17">
@@ -671,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1087226.414188571</v>
+        <v>1146642.233343602</v>
       </c>
     </row>
     <row r="18">
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1089126.582183804</v>
+        <v>1093981.28365418</v>
       </c>
     </row>
     <row r="19">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1096574.394179037</v>
+        <v>1122148.000964758</v>
       </c>
     </row>
     <row r="20">
@@ -713,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>1100462.989174272</v>
+        <v>1149897.548275336</v>
       </c>
     </row>
     <row r="21">
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1103120.373169506</v>
+        <v>1097718.696585914</v>
       </c>
     </row>
     <row r="22">
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1083263.881164741</v>
+        <v>1134270.416896492</v>
       </c>
     </row>
     <row r="23">
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>1103816.711159976</v>
+        <v>1125104.719207071</v>
       </c>
     </row>
     <row r="24">
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1113428.388154998</v>
+        <v>1097735.559517648</v>
       </c>
     </row>
     <row r="25">
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1105153.237150444</v>
+        <v>1132531.306828227</v>
       </c>
     </row>
     <row r="26">
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>1104540.86814568</v>
+        <v>1144459.153138798</v>
       </c>
     </row>
     <row r="27">
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1113423.536140914</v>
+        <v>1094756.602449383</v>
       </c>
     </row>
     <row r="28">
@@ -825,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>1107060.73413615</v>
+        <v>1147026.254759961</v>
       </c>
     </row>
     <row r="29">
@@ -839,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>1108188.732131385</v>
+        <v>1140595.040070539</v>
       </c>
     </row>
     <row r="30">
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>1106020.94512635</v>
+        <v>1121291.174381117</v>
       </c>
     </row>
     <row r="31">
@@ -867,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>1111512.299121509</v>
+        <v>1137402.695691677</v>
       </c>
     </row>
     <row r="32">
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>987965.8070673111</v>
+        <v>1020976.618464816</v>
       </c>
     </row>
     <row r="33">
@@ -895,7 +895,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>990961.7006192685</v>
+        <v>1020965.813408349</v>
       </c>
     </row>
     <row r="34">
@@ -909,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>991634.7141036459</v>
+        <v>1020969.962351859</v>
       </c>
     </row>
     <row r="35">
@@ -923,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>991637.2376570018</v>
+        <v>1020968.045295368</v>
       </c>
     </row>
     <row r="36">
@@ -937,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>991636.364205786</v>
+        <v>1020962.717238877</v>
       </c>
     </row>
     <row r="37">
@@ -951,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>991636.1767590865</v>
+        <v>1020973.698182386</v>
       </c>
     </row>
     <row r="38">
@@ -965,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>991636.6643863996</v>
+        <v>1020965.623125895</v>
       </c>
     </row>
     <row r="39">
@@ -979,7 +979,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>991637.1519401742</v>
+        <v>1020969.139069404</v>
       </c>
     </row>
     <row r="40">
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>991637.639493949</v>
+        <v>1020971.986012913</v>
       </c>
     </row>
     <row r="41">
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>991638.1270477236</v>
+        <v>1020961.851956422</v>
       </c>
     </row>
     <row r="42">
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>991637.939601498</v>
+        <v>1020974.873899431</v>
       </c>
     </row>
     <row r="43">
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>991639.7771552729</v>
+        <v>1020965.473843446</v>
       </c>
     </row>
     <row r="44">
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>991639.5897090465</v>
+        <v>1020964.187786956</v>
       </c>
     </row>
     <row r="45">
@@ -1063,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>991640.0772628211</v>
+        <v>1020966.313730465</v>
       </c>
     </row>
     <row r="46">
@@ -1077,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>991640.5648165951</v>
+        <v>1020962.339673974</v>
       </c>
     </row>
     <row r="47">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>991641.0523703697</v>
+        <v>1020961.041617446</v>
       </c>
     </row>
     <row r="48">
@@ -1105,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>991639.5149241431</v>
+        <v>1020964.593560991</v>
       </c>
     </row>
     <row r="49">
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>991642.0274779177</v>
+        <v>1020959.9315045</v>
       </c>
     </row>
     <row r="50">
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>991642.5150316909</v>
+        <v>1020957.244448005</v>
       </c>
     </row>
     <row r="51">
@@ -1147,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>991649.8045854655</v>
+        <v>1020962.175391516</v>
       </c>
     </row>
     <row r="52">
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>991645.5261392392</v>
+        <v>1020955.433335025</v>
       </c>
     </row>
     <row r="53">
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>991646.0136930138</v>
+        <v>1020964.362278534</v>
       </c>
     </row>
     <row r="54">
@@ -1189,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>991770.9412467873</v>
+        <v>1020956.322222042</v>
       </c>
     </row>
     <row r="55">
@@ -1203,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>991595.9928005619</v>
+        <v>1020958.457165551</v>
       </c>
     </row>
     <row r="56">
@@ -1217,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>991647.4763543358</v>
+        <v>1020955.15010906</v>
       </c>
     </row>
     <row r="57">
@@ -1231,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>991569.7579081105</v>
+        <v>1020955.26105257</v>
       </c>
     </row>
     <row r="58">
@@ -1245,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>991672.9314618844</v>
+        <v>1020958.071996078</v>
       </c>
     </row>
     <row r="59">
@@ -1259,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>991622.423015659</v>
+        <v>1020955.453939587</v>
       </c>
     </row>
     <row r="60">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>991647.3904710559</v>
+        <v>1020958.280883097</v>
       </c>
     </row>
     <row r="61">
@@ -1287,7 +1287,1267 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>996653.6560242143</v>
+        <v>1020965.204826439</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>61</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1021036.927124431</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>62</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1021017.420106475</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>63</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1021041.795088398</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>64</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1021016.791069387</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>65</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1021039.135052343</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>66</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1020997.17403229</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>67</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1021055.595015303</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>68</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1021040.639998256</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>69</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1021020.275980216</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>70</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1021036.805962176</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>71</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1021036.003944136</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>72</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1021000.036926096</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>73</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1021032.778908055</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>74</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1021070.127890015</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>75</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1021021.935871968</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>76</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1021030.644853888</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>77</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1021021.989835847</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>78</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1021056.434817807</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>79</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1021030.534799766</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>80</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1021039.283781725</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>81</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1021033.822763685</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>82</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1021033.679745644</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>83</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1021023.492727604</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>84</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1021052.497709563</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>85</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1021031.639691523</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>86</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1021040.034673481</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>87</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1021036.901655442</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>88</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1021033.081637404</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>89</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1021042.21761939</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>90</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1021040.437601321</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>91</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1020992.111095903</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>92</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1021051.779033207</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>93</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1021014.777959031</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>94</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1021027.752884855</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>95</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1021005.092810679</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>96</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1021027.116736503</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>97</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1021029.878662327</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>98</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1021027.763588151</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>99</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1021023.821513975</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>100</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1021019.021439799</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>101</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1021028.236365623</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>102</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1021017.158291447</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>103</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1020998.307217271</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>104</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1021050.237143095</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>105</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1021022.960068919</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>106</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1021025.054994743</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>107</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1021033.390920567</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>108</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1021002.906846391</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>109</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1021036.445772213</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>110</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1021028.101698039</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>111</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1021027.766623863</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>112</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1021020.843549687</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>113</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1021018.310475511</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>114</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1021032.085401335</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>115</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1021027.276327159</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>116</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1021025.452252983</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>117</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1021020.005178807</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>118</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1021033.105104631</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>119</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1021024.982030455</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>120</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1021031.887956275</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>121</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1020957.798446983</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>122</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1020989.688668451</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>123</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1021017.559888016</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>124</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1020950.853107582</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>125</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1021026.731327147</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>126</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1020952.164546712</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>127</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1021028.839766278</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>128</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1020992.325985843</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>129</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1020957.396205407</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>130</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1020987.682424976</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>131</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1020994.194644542</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>132</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1021006.965864107</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>133</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1020975.691083673</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>134</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1020984.591303238</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>135</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1020983.967522803</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>136</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1021000.869742369</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>137</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1020981.459961934</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>138</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1020985.8781815</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>139</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1020968.523401065</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>140</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1020997.487620631</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>141</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1020986.392840196</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>142</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1020982.542059762</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>143</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1020989.792279327</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>144</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1020986.068498892</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>145</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1020985.035718458</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>146</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1020977.951938023</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>147</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1020988.526157589</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>148</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1020981.407377153</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>149</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1020980.430596611</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>150</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1020983.520816284</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados/Escenario 1/objective_value.xlsx
+++ b/Resultados/Escenario 1/objective_value.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1081494.938165869</v>
+        <v>1038507.812720794</v>
       </c>
     </row>
     <row r="3">
@@ -475,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1101001.108476447</v>
+        <v>1027927.85167771</v>
       </c>
     </row>
     <row r="4">
@@ -489,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1080733.112787025</v>
+        <v>1037801.011634626</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1084307.670723996</v>
+        <v>1010439.474591541</v>
       </c>
     </row>
     <row r="6">
@@ -517,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1114013.497938387</v>
+        <v>1037124.403548458</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1136517.901092367</v>
+        <v>1032078.619505374</v>
       </c>
     </row>
     <row r="8">
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1088384.225496346</v>
+        <v>1043670.78346229</v>
       </c>
     </row>
     <row r="9">
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1082172.898128478</v>
+        <v>1028191.756548239</v>
       </c>
     </row>
     <row r="10">
@@ -573,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1078496.097169555</v>
+        <v>1030917.376247091</v>
       </c>
     </row>
     <row r="11">
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1095264.257480133</v>
+        <v>1037653.841204008</v>
       </c>
     </row>
     <row r="12">
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1125780.016790711</v>
+        <v>1030422.302160923</v>
       </c>
     </row>
     <row r="13">
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1110815.61210129</v>
+        <v>1023072.69811784</v>
       </c>
     </row>
     <row r="14">
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1132565.071411868</v>
+        <v>1039537.811074756</v>
       </c>
     </row>
     <row r="15">
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1050091.246722446</v>
+        <v>1038470.024031673</v>
       </c>
     </row>
     <row r="16">
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1102839.726033024</v>
+        <v>1027492.301988589</v>
       </c>
     </row>
     <row r="17">
@@ -671,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1146642.233343602</v>
+        <v>1037569.128945506</v>
       </c>
     </row>
     <row r="18">
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1093981.28365418</v>
+        <v>1029879.765902422</v>
       </c>
     </row>
     <row r="19">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1122148.000964758</v>
+        <v>1036061.051859336</v>
       </c>
     </row>
     <row r="20">
@@ -713,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>1149897.548275336</v>
+        <v>1033262.125816255</v>
       </c>
     </row>
     <row r="21">
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1097718.696585914</v>
+        <v>1034113.102773171</v>
       </c>
     </row>
     <row r="22">
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1134270.416896492</v>
+        <v>1034202.199730088</v>
       </c>
     </row>
     <row r="23">
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>1125104.719207071</v>
+        <v>1029665.850687004</v>
       </c>
     </row>
     <row r="24">
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1097735.559517648</v>
+        <v>1036509.608643918</v>
       </c>
     </row>
     <row r="25">
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1132531.306828227</v>
+        <v>1032303.274600837</v>
       </c>
     </row>
     <row r="26">
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>1144459.153138798</v>
+        <v>1035346.513557754</v>
       </c>
     </row>
     <row r="27">
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1094756.602449383</v>
+        <v>1037701.83651467</v>
       </c>
     </row>
     <row r="28">
@@ -825,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>1147026.254759961</v>
+        <v>1034064.299471586</v>
       </c>
     </row>
     <row r="29">
@@ -839,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>1140595.040070539</v>
+        <v>1035784.156428503</v>
       </c>
     </row>
     <row r="30">
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>1121291.174381117</v>
+        <v>1034508.56638542</v>
       </c>
     </row>
     <row r="31">
@@ -867,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>1137402.695691677</v>
+        <v>1036569.849342332</v>
       </c>
     </row>
     <row r="32">
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>1020976.618464816</v>
+        <v>1020990.521883667</v>
       </c>
     </row>
     <row r="33">
@@ -895,7 +895,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>1020965.813408349</v>
+        <v>1020968.387476513</v>
       </c>
     </row>
     <row r="34">
@@ -909,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>1020969.962351859</v>
+        <v>1020944.113067608</v>
       </c>
     </row>
     <row r="35">
@@ -923,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>1020968.045295368</v>
+        <v>1021002.620658379</v>
       </c>
     </row>
     <row r="36">
@@ -937,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>1020962.717238877</v>
+        <v>1020986.797249794</v>
       </c>
     </row>
     <row r="37">
@@ -951,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>1020973.698182386</v>
+        <v>1020981.309840889</v>
       </c>
     </row>
     <row r="38">
@@ -965,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>1020965.623125895</v>
+        <v>1020941.592849894</v>
       </c>
     </row>
     <row r="39">
@@ -979,7 +979,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>1020969.139069404</v>
+        <v>1021027.908605014</v>
       </c>
     </row>
     <row r="40">
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>1020971.986012913</v>
+        <v>1020966.22819611</v>
       </c>
     </row>
     <row r="41">
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>1020961.851956422</v>
+        <v>1020975.261730278</v>
       </c>
     </row>
     <row r="42">
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>1020974.873899431</v>
+        <v>1020978.199435073</v>
       </c>
     </row>
     <row r="43">
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>1020965.473843446</v>
+        <v>1020978.683026065</v>
       </c>
     </row>
     <row r="44">
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>1020964.187786956</v>
+        <v>1020967.316560173</v>
       </c>
     </row>
     <row r="45">
@@ -1063,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>1020966.313730465</v>
+        <v>1020976.355265128</v>
       </c>
     </row>
     <row r="46">
@@ -1077,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>1020962.339673974</v>
+        <v>1020948.797856223</v>
       </c>
     </row>
     <row r="47">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>1020961.041617446</v>
+        <v>1020993.497447175</v>
       </c>
     </row>
     <row r="48">
@@ -1105,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>1020964.593560991</v>
+        <v>1020971.671038328</v>
       </c>
     </row>
     <row r="49">
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>1020959.9315045</v>
+        <v>1020958.527629355</v>
       </c>
     </row>
     <row r="50">
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>1020957.244448005</v>
+        <v>1020982.724221592</v>
       </c>
     </row>
     <row r="51">
@@ -1147,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>1020962.175391516</v>
+        <v>1020955.565811694</v>
       </c>
     </row>
     <row r="52">
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>1020955.433335025</v>
+        <v>1020986.620402789</v>
       </c>
     </row>
     <row r="53">
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>1020964.362278534</v>
+        <v>1020957.463103561</v>
       </c>
     </row>
     <row r="54">
@@ -1189,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>1020956.322222042</v>
+        <v>1020982.338475302</v>
       </c>
     </row>
     <row r="55">
@@ -1203,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>1020958.457165551</v>
+        <v>1020974.558066247</v>
       </c>
     </row>
     <row r="56">
@@ -1217,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>1020955.15010906</v>
+        <v>1020963.118657458</v>
       </c>
     </row>
     <row r="57">
@@ -1231,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>1020955.26105257</v>
+        <v>1020971.676250176</v>
       </c>
     </row>
     <row r="58">
@@ -1245,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>1020958.071996078</v>
+        <v>1020963.649475817</v>
       </c>
     </row>
     <row r="59">
@@ -1259,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>1020955.453939587</v>
+        <v>1020974.96079464</v>
       </c>
     </row>
     <row r="60">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>1020958.280883097</v>
+        <v>1020974.566385735</v>
       </c>
     </row>
     <row r="61">
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>1020965.204826439</v>
+        <v>1020966.615976831</v>
       </c>
     </row>
     <row r="62">
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>1021036.927124431</v>
+        <v>1021014.501595599</v>
       </c>
     </row>
     <row r="63">
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>1021017.420106475</v>
+        <v>1020956.603580295</v>
       </c>
     </row>
     <row r="64">
@@ -1329,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>1021041.795088398</v>
+        <v>1020963.050564267</v>
       </c>
     </row>
     <row r="65">
@@ -1343,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>1021016.791069387</v>
+        <v>1021039.079685356</v>
       </c>
     </row>
     <row r="66">
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>1021039.135052343</v>
+        <v>1020953.472396072</v>
       </c>
     </row>
     <row r="67">
@@ -1371,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>1020997.17403229</v>
+        <v>1021028.567380369</v>
       </c>
     </row>
     <row r="68">
@@ -1385,7 +1385,7 @@
         <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>1021055.595015303</v>
+        <v>1020994.578364666</v>
       </c>
     </row>
     <row r="69">
@@ -1399,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>1021040.639998256</v>
+        <v>1020934.526349042</v>
       </c>
     </row>
     <row r="70">
@@ -1413,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>1021020.275980216</v>
+        <v>1021031.09933326</v>
       </c>
     </row>
     <row r="71">
@@ -1427,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>1021036.805962176</v>
+        <v>1020933.445705286</v>
       </c>
     </row>
     <row r="72">
@@ -1441,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>1021036.003944136</v>
+        <v>1020968.776914754</v>
       </c>
     </row>
     <row r="73">
@@ -1455,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>1021000.036926096</v>
+        <v>1021002.724898913</v>
       </c>
     </row>
     <row r="74">
@@ -1469,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>1021032.778908055</v>
+        <v>1021009.630883348</v>
       </c>
     </row>
     <row r="75">
@@ -1483,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>1021070.127890015</v>
+        <v>1020985.290867645</v>
       </c>
     </row>
     <row r="76">
@@ -1497,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>1021021.935871968</v>
+        <v>1020946.108851942</v>
       </c>
     </row>
     <row r="77">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>1021030.644853888</v>
+        <v>1020981.872029788</v>
       </c>
     </row>
     <row r="78">
@@ -1525,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>1021021.989835847</v>
+        <v>1021026.841626986</v>
       </c>
     </row>
     <row r="79">
@@ -1539,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>1021056.434817807</v>
+        <v>1020960.951385483</v>
       </c>
     </row>
     <row r="80">
@@ -1553,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>1021030.534799766</v>
+        <v>1020987.845821381</v>
       </c>
     </row>
     <row r="81">
@@ -1567,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>1021039.283781725</v>
+        <v>1020977.914805897</v>
       </c>
     </row>
     <row r="82">
@@ -1581,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>1021033.822763685</v>
+        <v>1020984.807789976</v>
       </c>
     </row>
     <row r="83">
@@ -1595,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>1021033.679745644</v>
+        <v>1020987.897774273</v>
       </c>
     </row>
     <row r="84">
@@ -1609,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>1021023.492727604</v>
+        <v>1020967.82075857</v>
       </c>
     </row>
     <row r="85">
@@ -1623,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>1021052.497709563</v>
+        <v>1020993.738742867</v>
       </c>
     </row>
     <row r="86">
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>1021031.639691523</v>
+        <v>1020976.451727164</v>
       </c>
     </row>
     <row r="87">
@@ -1651,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>1021040.034673481</v>
+        <v>1020983.868711461</v>
       </c>
     </row>
     <row r="88">
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>1021036.901655442</v>
+        <v>1020982.187695759</v>
       </c>
     </row>
     <row r="89">
@@ -1679,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>1021033.081637404</v>
+        <v>1020975.218067155</v>
       </c>
     </row>
     <row r="90">
@@ -1693,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>1021042.21761939</v>
+        <v>1020988.792277063</v>
       </c>
     </row>
     <row r="91">
@@ -1707,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>1021040.437601321</v>
+        <v>1020979.061261548</v>
       </c>
     </row>
     <row r="92">
@@ -1721,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>1020992.111095903</v>
+        <v>1021027.520143264</v>
       </c>
     </row>
     <row r="93">
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>1021051.779033207</v>
+        <v>1020952.401843178</v>
       </c>
     </row>
     <row r="94">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>1021014.777959031</v>
+        <v>1021079.000542884</v>
       </c>
     </row>
     <row r="95">
@@ -1763,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>1021027.752884855</v>
+        <v>1020945.25424274</v>
       </c>
     </row>
     <row r="96">
@@ -1777,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>1021005.092810679</v>
+        <v>1021111.495942521</v>
       </c>
     </row>
     <row r="97">
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>1021027.116736503</v>
+        <v>1021006.216642303</v>
       </c>
     </row>
     <row r="98">
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>1021029.878662327</v>
+        <v>1021058.272342084</v>
       </c>
     </row>
     <row r="99">
@@ -1819,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>1021027.763588151</v>
+        <v>1020998.663041865</v>
       </c>
     </row>
     <row r="100">
@@ -1833,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>1021023.821513975</v>
+        <v>1021014.063741646</v>
       </c>
     </row>
     <row r="101">
@@ -1847,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>1021019.021439799</v>
+        <v>1021084.081441427</v>
       </c>
     </row>
     <row r="102">
@@ -1861,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>1021028.236365623</v>
+        <v>1020952.115141209</v>
       </c>
     </row>
     <row r="103">
@@ -1875,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>1021017.158291447</v>
+        <v>1021102.64284099</v>
       </c>
     </row>
     <row r="104">
@@ -1889,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>1020998.307217271</v>
+        <v>1021024.655540772</v>
       </c>
     </row>
     <row r="105">
@@ -1903,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>1021050.237143095</v>
+        <v>1021022.129240553</v>
       </c>
     </row>
     <row r="106">
@@ -1917,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>1021022.960068919</v>
+        <v>1021019.684940334</v>
       </c>
     </row>
     <row r="107">
@@ -1931,7 +1931,7 @@
         <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>1021025.054994743</v>
+        <v>1021008.712640116</v>
       </c>
     </row>
     <row r="108">
@@ -1945,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>1021033.390920567</v>
+        <v>1021067.275339897</v>
       </c>
     </row>
     <row r="109">
@@ -1959,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>1021002.906846391</v>
+        <v>1021022.743039678</v>
       </c>
     </row>
     <row r="110">
@@ -1973,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>1021036.445772213</v>
+        <v>1020993.04973946</v>
       </c>
     </row>
     <row r="111">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>1021028.101698039</v>
+        <v>1021049.063439241</v>
       </c>
     </row>
     <row r="112">
@@ -2001,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>1021027.766623863</v>
+        <v>1021024.995139022</v>
       </c>
     </row>
     <row r="113">
@@ -2015,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>1021020.843549687</v>
+        <v>1021051.811838803</v>
       </c>
     </row>
     <row r="114">
@@ -2029,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>1021018.310475511</v>
+        <v>1021015.302538585</v>
       </c>
     </row>
     <row r="115">
@@ -2043,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>1021032.085401335</v>
+        <v>1021050.322238366</v>
       </c>
     </row>
     <row r="116">
@@ -2057,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="D116" t="n">
-        <v>1021027.276327159</v>
+        <v>1021017.954938147</v>
       </c>
     </row>
     <row r="117">
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>1021025.452252983</v>
+        <v>1021042.114637929</v>
       </c>
     </row>
     <row r="118">
@@ -2085,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>1021020.005178807</v>
+        <v>1021025.30933771</v>
       </c>
     </row>
     <row r="119">
@@ -2099,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>1021033.105104631</v>
+        <v>1021038.575037492</v>
       </c>
     </row>
     <row r="120">
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>1021024.982030455</v>
+        <v>1021023.219737273</v>
       </c>
     </row>
     <row r="121">
@@ -2127,427 +2127,7 @@
         <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>1021031.887956275</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>121</v>
-      </c>
-      <c r="C122" t="n">
-        <v>1</v>
-      </c>
-      <c r="D122" t="n">
-        <v>1020957.798446983</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>122</v>
-      </c>
-      <c r="C123" t="n">
-        <v>1</v>
-      </c>
-      <c r="D123" t="n">
-        <v>1020989.688668451</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>123</v>
-      </c>
-      <c r="C124" t="n">
-        <v>1</v>
-      </c>
-      <c r="D124" t="n">
-        <v>1021017.559888016</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>124</v>
-      </c>
-      <c r="C125" t="n">
-        <v>1</v>
-      </c>
-      <c r="D125" t="n">
-        <v>1020950.853107582</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>125</v>
-      </c>
-      <c r="C126" t="n">
-        <v>1</v>
-      </c>
-      <c r="D126" t="n">
-        <v>1021026.731327147</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>126</v>
-      </c>
-      <c r="C127" t="n">
-        <v>1</v>
-      </c>
-      <c r="D127" t="n">
-        <v>1020952.164546712</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>127</v>
-      </c>
-      <c r="C128" t="n">
-        <v>1</v>
-      </c>
-      <c r="D128" t="n">
-        <v>1021028.839766278</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>128</v>
-      </c>
-      <c r="C129" t="n">
-        <v>1</v>
-      </c>
-      <c r="D129" t="n">
-        <v>1020992.325985843</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>129</v>
-      </c>
-      <c r="C130" t="n">
-        <v>1</v>
-      </c>
-      <c r="D130" t="n">
-        <v>1020957.396205407</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>130</v>
-      </c>
-      <c r="C131" t="n">
-        <v>1</v>
-      </c>
-      <c r="D131" t="n">
-        <v>1020987.682424976</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>131</v>
-      </c>
-      <c r="C132" t="n">
-        <v>1</v>
-      </c>
-      <c r="D132" t="n">
-        <v>1020994.194644542</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>132</v>
-      </c>
-      <c r="C133" t="n">
-        <v>1</v>
-      </c>
-      <c r="D133" t="n">
-        <v>1021006.965864107</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>133</v>
-      </c>
-      <c r="C134" t="n">
-        <v>1</v>
-      </c>
-      <c r="D134" t="n">
-        <v>1020975.691083673</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>134</v>
-      </c>
-      <c r="C135" t="n">
-        <v>1</v>
-      </c>
-      <c r="D135" t="n">
-        <v>1020984.591303238</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>135</v>
-      </c>
-      <c r="C136" t="n">
-        <v>1</v>
-      </c>
-      <c r="D136" t="n">
-        <v>1020983.967522803</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>136</v>
-      </c>
-      <c r="C137" t="n">
-        <v>1</v>
-      </c>
-      <c r="D137" t="n">
-        <v>1021000.869742369</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>137</v>
-      </c>
-      <c r="C138" t="n">
-        <v>1</v>
-      </c>
-      <c r="D138" t="n">
-        <v>1020981.459961934</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>138</v>
-      </c>
-      <c r="C139" t="n">
-        <v>1</v>
-      </c>
-      <c r="D139" t="n">
-        <v>1020985.8781815</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>139</v>
-      </c>
-      <c r="C140" t="n">
-        <v>1</v>
-      </c>
-      <c r="D140" t="n">
-        <v>1020968.523401065</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>140</v>
-      </c>
-      <c r="C141" t="n">
-        <v>1</v>
-      </c>
-      <c r="D141" t="n">
-        <v>1020997.487620631</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>141</v>
-      </c>
-      <c r="C142" t="n">
-        <v>1</v>
-      </c>
-      <c r="D142" t="n">
-        <v>1020986.392840196</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>142</v>
-      </c>
-      <c r="C143" t="n">
-        <v>1</v>
-      </c>
-      <c r="D143" t="n">
-        <v>1020982.542059762</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>143</v>
-      </c>
-      <c r="C144" t="n">
-        <v>1</v>
-      </c>
-      <c r="D144" t="n">
-        <v>1020989.792279327</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>144</v>
-      </c>
-      <c r="C145" t="n">
-        <v>1</v>
-      </c>
-      <c r="D145" t="n">
-        <v>1020986.068498892</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>145</v>
-      </c>
-      <c r="C146" t="n">
-        <v>1</v>
-      </c>
-      <c r="D146" t="n">
-        <v>1020985.035718458</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>146</v>
-      </c>
-      <c r="C147" t="n">
-        <v>1</v>
-      </c>
-      <c r="D147" t="n">
-        <v>1020977.951938023</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>147</v>
-      </c>
-      <c r="C148" t="n">
-        <v>1</v>
-      </c>
-      <c r="D148" t="n">
-        <v>1020988.526157589</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>148</v>
-      </c>
-      <c r="C149" t="n">
-        <v>1</v>
-      </c>
-      <c r="D149" t="n">
-        <v>1020981.407377153</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>149</v>
-      </c>
-      <c r="C150" t="n">
-        <v>1</v>
-      </c>
-      <c r="D150" t="n">
-        <v>1020980.430596611</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>150</v>
-      </c>
-      <c r="C151" t="n">
-        <v>1</v>
-      </c>
-      <c r="D151" t="n">
-        <v>1020983.520816284</v>
+        <v>1021032.328437052</v>
       </c>
     </row>
   </sheetData>
